--- a/Aakansha Cab Requirements - 31st Oct 23 - Copy.xlsx
+++ b/Aakansha Cab Requirements - 31st Oct 23 - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fisglobal-my.sharepoint.com/personal/hemalatha_jayabalan_fisglobal_com/Documents/e3024537_Backup/D_Drive/Hema's/SVT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="13_ncr:1_{2352BD95-8B95-8B40-8070-63E32E2B6186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{895685A2-4D10-403E-81B2-F573C1DC3B55}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{2352BD95-8B95-8B40-8070-63E32E2B6186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FB9F891-D702-4876-A14D-A8E07342C203}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="568">
   <si>
     <t>S.no</t>
   </si>
@@ -1563,6 +1563,318 @@
   </si>
   <si>
     <t>Guest Name</t>
+  </si>
+  <si>
+    <t>Paneerselvam</t>
+  </si>
+  <si>
+    <t>TN10AY4960</t>
+  </si>
+  <si>
+    <t>8637414560</t>
+  </si>
+  <si>
+    <t>Govind</t>
+  </si>
+  <si>
+    <t>TN09BW2104</t>
+  </si>
+  <si>
+    <t>9940142215</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>TN10BB9924</t>
+  </si>
+  <si>
+    <t>9841243131</t>
+  </si>
+  <si>
+    <t>Sridhar</t>
+  </si>
+  <si>
+    <t>TN22DY9444</t>
+  </si>
+  <si>
+    <t>8072609673</t>
+  </si>
+  <si>
+    <t>Elangovan</t>
+  </si>
+  <si>
+    <t>TN19S0378</t>
+  </si>
+  <si>
+    <t>8939037847</t>
+  </si>
+  <si>
+    <t>Senthil</t>
+  </si>
+  <si>
+    <t>PY05Y7700</t>
+  </si>
+  <si>
+    <t>9940642133</t>
+  </si>
+  <si>
+    <t>Vinoth</t>
+  </si>
+  <si>
+    <t>TN10BF0115</t>
+  </si>
+  <si>
+    <t>7358799887</t>
+  </si>
+  <si>
+    <t>Kanagaraj</t>
+  </si>
+  <si>
+    <t>TN09CH5731</t>
+  </si>
+  <si>
+    <t>9952027305</t>
+  </si>
+  <si>
+    <t>Niyaz</t>
+  </si>
+  <si>
+    <t>TN11AB5476</t>
+  </si>
+  <si>
+    <t>9159374721</t>
+  </si>
+  <si>
+    <t>Mariappan</t>
+  </si>
+  <si>
+    <t>TN09BM6881</t>
+  </si>
+  <si>
+    <t>9952954563</t>
+  </si>
+  <si>
+    <t>Madhan</t>
+  </si>
+  <si>
+    <t>TN22DF5109</t>
+  </si>
+  <si>
+    <t>7639288236</t>
+  </si>
+  <si>
+    <t>Rajesh</t>
+  </si>
+  <si>
+    <t>TN22DL8557</t>
+  </si>
+  <si>
+    <t>9943013365</t>
+  </si>
+  <si>
+    <t>Velayudham</t>
+  </si>
+  <si>
+    <t>TN09CF2653</t>
+  </si>
+  <si>
+    <t>9363352570</t>
+  </si>
+  <si>
+    <t>Nirmal Raj</t>
+  </si>
+  <si>
+    <t>TN10BS0313</t>
+  </si>
+  <si>
+    <t>9884829791</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>TN22DV1299</t>
+  </si>
+  <si>
+    <t>9677146476</t>
+  </si>
+  <si>
+    <t>Vino Jeeva</t>
+  </si>
+  <si>
+    <t>TN11AB5200</t>
+  </si>
+  <si>
+    <t>9840655314</t>
+  </si>
+  <si>
+    <t>Kumaresan</t>
+  </si>
+  <si>
+    <t>TN22DX4209</t>
+  </si>
+  <si>
+    <t>8610438637</t>
+  </si>
+  <si>
+    <t>Bala</t>
+  </si>
+  <si>
+    <t>TN09AY7929</t>
+  </si>
+  <si>
+    <t>9841615405</t>
+  </si>
+  <si>
+    <t>Rajan</t>
+  </si>
+  <si>
+    <t>TN67BQ3521</t>
+  </si>
+  <si>
+    <t>9094908833</t>
+  </si>
+  <si>
+    <t>Vijay</t>
+  </si>
+  <si>
+    <t>TN69BS7848</t>
+  </si>
+  <si>
+    <t>Balamurugan</t>
+  </si>
+  <si>
+    <t>TN12W2598</t>
+  </si>
+  <si>
+    <t>9500273590</t>
+  </si>
+  <si>
+    <t>Selvam</t>
+  </si>
+  <si>
+    <t>TN45BM1505</t>
+  </si>
+  <si>
+    <t>9884209050</t>
+  </si>
+  <si>
+    <t>Faizal</t>
+  </si>
+  <si>
+    <t>TN01BC1786</t>
+  </si>
+  <si>
+    <t>8925120980</t>
+  </si>
+  <si>
+    <t>Anandh Kumar</t>
+  </si>
+  <si>
+    <t>TN09CD9533</t>
+  </si>
+  <si>
+    <t>9943210021</t>
+  </si>
+  <si>
+    <t>Silambarasam</t>
+  </si>
+  <si>
+    <t>TN49CK9038</t>
+  </si>
+  <si>
+    <t>9655780563</t>
+  </si>
+  <si>
+    <t>Arumugam</t>
+  </si>
+  <si>
+    <t>TN09BT7560</t>
+  </si>
+  <si>
+    <t>9840468934</t>
+  </si>
+  <si>
+    <t>Balaji</t>
+  </si>
+  <si>
+    <t>TN09CW8561</t>
+  </si>
+  <si>
+    <t>Madhavan</t>
+  </si>
+  <si>
+    <t>TN07CR5889</t>
+  </si>
+  <si>
+    <t>9952072932</t>
+  </si>
+  <si>
+    <t>Yuvaraj</t>
+  </si>
+  <si>
+    <t>TN14D0418</t>
+  </si>
+  <si>
+    <t>7200760145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venkatesan </t>
+  </si>
+  <si>
+    <t>TN25AR0678</t>
+  </si>
+  <si>
+    <t>6374796161</t>
+  </si>
+  <si>
+    <t>Arun Kumar</t>
+  </si>
+  <si>
+    <t>TN22DH8555</t>
+  </si>
+  <si>
+    <t>9791121136</t>
+  </si>
+  <si>
+    <t>Ameen</t>
+  </si>
+  <si>
+    <t>TN07CM6370</t>
+  </si>
+  <si>
+    <t>9345343592</t>
+  </si>
+  <si>
+    <t>Poun Kumar</t>
+  </si>
+  <si>
+    <t>9360524479</t>
+  </si>
+  <si>
+    <t>TN10AF4081</t>
+  </si>
+  <si>
+    <t>Anwar</t>
+  </si>
+  <si>
+    <t>8870935105</t>
+  </si>
+  <si>
+    <t>TN22DQ8132</t>
+  </si>
+  <si>
+    <t>Sabarish</t>
+  </si>
+  <si>
+    <t>TN20CQ6575</t>
+  </si>
+  <si>
+    <t>8807327972</t>
+  </si>
+  <si>
+    <t>Standby</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +2112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2069,21 +2381,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2135,9 +2432,6 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2238,9 +2532,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2314,6 +2605,43 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8456,12 +8784,12 @@
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C2" s="6"/>
-      <c r="D2" s="112" t="s">
+      <c r="D2" s="190" t="s">
         <v>450</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C3" s="6"/>
@@ -8533,12 +8861,12 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="D9" s="112" t="s">
+      <c r="D9" s="190" t="s">
         <v>450</v>
       </c>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="190"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.35">
       <c r="D10" s="15" t="s">
@@ -8619,21 +8947,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="29.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.36328125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="0.36328125" customWidth="1"/>
     <col min="5" max="5" width="14.08984375" customWidth="1"/>
     <col min="6" max="6" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.453125" bestFit="1" customWidth="1"/>
@@ -8641,11 +8969,11 @@
     <col min="9" max="9" width="6.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.26953125" style="85" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.81640625" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" customWidth="1"/>
-    <col min="13" max="13" width="11.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" customWidth="1"/>
+    <col min="13" max="13" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="143.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8676,13 +9004,13 @@
       <c r="J1" s="86" t="s">
         <v>436</v>
       </c>
-      <c r="K1" s="117" t="s">
+      <c r="K1" s="112" t="s">
         <v>460</v>
       </c>
-      <c r="L1" s="117" t="s">
+      <c r="L1" s="112" t="s">
         <v>461</v>
       </c>
-      <c r="M1" s="117" t="s">
+      <c r="M1" s="112" t="s">
         <v>462</v>
       </c>
     </row>
@@ -8693,7 +9021,7 @@
       <c r="B2" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="116">
         <v>9879888192</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -8711,15 +9039,21 @@
       <c r="H2" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="I2" s="180">
+      <c r="I2" s="173">
         <v>0.79513888888888884</v>
       </c>
       <c r="J2" s="86" t="s">
         <v>408</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="M2" s="199" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
@@ -8728,7 +9062,7 @@
       <c r="B3" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="197">
         <v>9455102129</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -8746,15 +9080,21 @@
       <c r="H3" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="I3" s="180">
+      <c r="I3" s="173">
         <v>0.76041666666666663</v>
       </c>
       <c r="J3" s="86" t="s">
         <v>409</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="K3" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="M3" s="199" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
@@ -8763,7 +9103,7 @@
       <c r="B4" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="118">
         <v>9830166106</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -8781,15 +9121,21 @@
       <c r="H4" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="181">
+      <c r="I4" s="174">
         <v>18</v>
       </c>
       <c r="J4" s="86" t="s">
         <v>410</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="K4" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="M4" s="199" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
@@ -8798,7 +9144,7 @@
       <c r="B5" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="80">
+      <c r="C5" s="115">
         <v>9820510908</v>
       </c>
       <c r="D5" s="95" t="s">
@@ -8816,15 +9162,21 @@
       <c r="H5" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="I5" s="182">
+      <c r="I5" s="175">
         <v>0.375</v>
       </c>
       <c r="J5" s="98" t="s">
         <v>411</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="M5" s="199" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
@@ -8833,7 +9185,7 @@
       <c r="B6" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="198">
         <v>9662496752</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -8851,15 +9203,21 @@
       <c r="H6" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="I6" s="183">
+      <c r="I6" s="176">
         <v>0.5</v>
       </c>
       <c r="J6" s="86" t="s">
         <v>412</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M6" s="199" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
@@ -8868,7 +9226,7 @@
       <c r="B7" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="115" t="s">
         <v>173</v>
       </c>
       <c r="D7" s="95" t="s">
@@ -8886,15 +9244,21 @@
       <c r="H7" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="182">
+      <c r="I7" s="175">
         <v>0.76041666666666663</v>
       </c>
       <c r="J7" s="98" t="s">
         <v>411</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M7" s="199" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
@@ -8903,7 +9267,7 @@
       <c r="B8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="119">
         <v>9000381919</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -8921,15 +9285,21 @@
       <c r="H8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="184">
+      <c r="I8" s="177">
         <v>0.92708333333333337</v>
       </c>
       <c r="J8" s="86" t="s">
         <v>413</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="M8" s="199" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
@@ -8938,7 +9308,7 @@
       <c r="B9" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="80">
+      <c r="C9" s="115">
         <v>9702902498</v>
       </c>
       <c r="D9" s="95" t="s">
@@ -8956,15 +9326,21 @@
       <c r="H9" s="100" t="s">
         <v>189</v>
       </c>
-      <c r="I9" s="185">
+      <c r="I9" s="178">
         <v>0.72569444444444453</v>
       </c>
       <c r="J9" s="98" t="s">
         <v>411</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="K9" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="M9" s="199" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
@@ -8973,7 +9349,7 @@
       <c r="B10" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="118">
         <v>8209171583</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -8991,15 +9367,21 @@
       <c r="H10" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="I10" s="186">
+      <c r="I10" s="179">
         <v>0.73958333333333337</v>
       </c>
       <c r="J10" s="87" t="s">
         <v>414</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="K10" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="M10" s="199" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
@@ -9008,7 +9390,7 @@
       <c r="B11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="119">
         <v>9546802008</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -9026,15 +9408,21 @@
       <c r="H11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="184">
+      <c r="I11" s="177">
         <v>0.48958333333333331</v>
       </c>
-      <c r="J11" s="115" t="s">
+      <c r="J11" s="193" t="s">
         <v>415</v>
       </c>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="115"/>
+      <c r="K11" s="193" t="s">
+        <v>467</v>
+      </c>
+      <c r="L11" s="193" t="s">
+        <v>468</v>
+      </c>
+      <c r="M11" s="193" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
@@ -9043,7 +9431,7 @@
       <c r="B12" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="118">
         <v>9828929366</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -9061,13 +9449,13 @@
       <c r="H12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="180">
+      <c r="I12" s="173">
         <v>0.48958333333333331</v>
       </c>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
+      <c r="J12" s="193"/>
+      <c r="K12" s="193"/>
+      <c r="L12" s="193"/>
+      <c r="M12" s="193"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
@@ -9076,7 +9464,7 @@
       <c r="B13" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="119">
         <v>9735490921</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -9094,15 +9482,21 @@
       <c r="H13" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="I13" s="187">
+      <c r="I13" s="180">
         <v>12</v>
       </c>
       <c r="J13" s="87" t="s">
         <v>416</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="K13" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="M13" s="199" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
@@ -9111,7 +9505,7 @@
       <c r="B14" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="118">
         <v>9978912980</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -9129,15 +9523,21 @@
       <c r="H14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="184">
+      <c r="I14" s="177">
         <v>0.54166666666666696</v>
       </c>
-      <c r="J14" s="115" t="s">
+      <c r="J14" s="193" t="s">
         <v>417</v>
       </c>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
+      <c r="K14" s="193" t="s">
+        <v>476</v>
+      </c>
+      <c r="L14" s="193" t="s">
+        <v>477</v>
+      </c>
+      <c r="M14" s="200" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
@@ -9146,7 +9546,7 @@
       <c r="B15" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="118">
         <v>8128659922</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -9164,13 +9564,13 @@
       <c r="H15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="180">
+      <c r="I15" s="173">
         <v>0.54166666666666696</v>
       </c>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
+      <c r="J15" s="193"/>
+      <c r="K15" s="193"/>
+      <c r="L15" s="193"/>
+      <c r="M15" s="200"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
@@ -9179,7 +9579,7 @@
       <c r="B16" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="198">
         <v>9820332608</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -9197,15 +9597,21 @@
       <c r="H16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I16" s="188">
+      <c r="I16" s="181">
         <v>0.78125</v>
       </c>
       <c r="J16" s="86" t="s">
         <v>419</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+      <c r="K16" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="M16" s="199" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
@@ -9214,7 +9620,7 @@
       <c r="B17" s="80" t="s">
         <v>327</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="115" t="s">
         <v>328</v>
       </c>
       <c r="D17" s="80" t="s">
@@ -9232,15 +9638,21 @@
       <c r="H17" s="104" t="s">
         <v>310</v>
       </c>
-      <c r="I17" s="189">
+      <c r="I17" s="182">
         <v>0.85416666666666663</v>
       </c>
       <c r="J17" s="98" t="s">
         <v>411</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="K17" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="M17" s="199" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
@@ -9249,7 +9661,7 @@
       <c r="B18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="119">
         <v>9913187560</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -9267,15 +9679,21 @@
       <c r="H18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="184">
+      <c r="I18" s="177">
         <v>0.55902777777777801</v>
       </c>
       <c r="J18" s="86" t="s">
         <v>418</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="K18" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="M18" s="199" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
@@ -9284,7 +9702,7 @@
       <c r="B19" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="118" t="s">
         <v>332</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -9302,15 +9720,21 @@
       <c r="H19" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="I19" s="190">
+      <c r="I19" s="183">
         <v>0.54166666666666663</v>
       </c>
-      <c r="J19" s="115" t="s">
+      <c r="J19" s="193" t="s">
         <v>420</v>
       </c>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="115"/>
+      <c r="K19" s="193" t="s">
+        <v>494</v>
+      </c>
+      <c r="L19" s="193" t="s">
+        <v>495</v>
+      </c>
+      <c r="M19" s="193" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
@@ -9319,7 +9743,7 @@
       <c r="B20" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="118">
         <v>9664320073</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -9333,11 +9757,11 @@
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="46"/>
-      <c r="I20" s="190"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
+      <c r="I20" s="183"/>
+      <c r="J20" s="193"/>
+      <c r="K20" s="193"/>
+      <c r="L20" s="193"/>
+      <c r="M20" s="193"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
@@ -9346,7 +9770,7 @@
       <c r="B21" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="118">
         <v>9100287931</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -9364,15 +9788,21 @@
       <c r="H21" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="I21" s="180">
+      <c r="I21" s="173">
         <v>0.79513888888888884</v>
       </c>
       <c r="J21" s="86" t="s">
         <v>421</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="K21" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="M21" s="199" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
@@ -9381,7 +9811,7 @@
       <c r="B22" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="118">
         <v>9182110949</v>
       </c>
       <c r="D22" s="11" t="s">
@@ -9399,15 +9829,21 @@
       <c r="H22" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="I22" s="180">
+      <c r="I22" s="173">
         <v>0.76041666666666663</v>
       </c>
       <c r="J22" s="86" t="s">
         <v>422</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
+      <c r="K22" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M22" s="199" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
@@ -9416,7 +9852,7 @@
       <c r="B23" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="C23" s="80">
+      <c r="C23" s="115">
         <v>9818377238</v>
       </c>
       <c r="D23" s="95" t="s">
@@ -9434,15 +9870,21 @@
       <c r="H23" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="I23" s="185">
+      <c r="I23" s="178">
         <v>0.44791666666666669</v>
       </c>
       <c r="J23" s="98" t="s">
         <v>411</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
+      <c r="K23" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="M23" s="199" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
@@ -9451,7 +9893,7 @@
       <c r="B24" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="118">
         <v>9819686989</v>
       </c>
       <c r="D24" s="11" t="s">
@@ -9469,15 +9911,21 @@
       <c r="H24" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="I24" s="191">
+      <c r="I24" s="184">
         <v>0.78125</v>
       </c>
       <c r="J24" s="86" t="s">
         <v>424</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
+      <c r="K24" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="M24" s="199" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
@@ -9486,7 +9934,7 @@
       <c r="B25" s="80" t="s">
         <v>356</v>
       </c>
-      <c r="C25" s="80">
+      <c r="C25" s="115">
         <v>9822032969</v>
       </c>
       <c r="D25" s="80" t="s">
@@ -9504,15 +9952,21 @@
       <c r="H25" s="106" t="s">
         <v>404</v>
       </c>
-      <c r="I25" s="192">
+      <c r="I25" s="185">
         <v>0.9194444444444444</v>
       </c>
       <c r="J25" s="98" t="s">
         <v>411</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="K25" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="M25" s="199" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
@@ -9521,7 +9975,7 @@
       <c r="B26" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="118">
         <v>7006342907</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -9539,15 +9993,21 @@
       <c r="H26" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="I26" s="180">
+      <c r="I26" s="173">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J26" s="113" t="s">
+      <c r="J26" s="191" t="s">
         <v>411</v>
       </c>
-      <c r="K26" s="113"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="113"/>
+      <c r="K26" s="191" t="s">
+        <v>512</v>
+      </c>
+      <c r="L26" s="191" t="s">
+        <v>513</v>
+      </c>
+      <c r="M26" s="191" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
@@ -9556,7 +10016,7 @@
       <c r="B27" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="119">
         <v>8825067321</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -9574,13 +10034,13 @@
       <c r="H27" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="I27" s="180">
+      <c r="I27" s="173">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J27" s="113"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="113"/>
+      <c r="J27" s="191"/>
+      <c r="K27" s="191"/>
+      <c r="L27" s="191"/>
+      <c r="M27" s="191"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
@@ -9589,7 +10049,7 @@
       <c r="B28" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="118">
         <v>9419581968</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -9607,13 +10067,13 @@
       <c r="H28" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="I28" s="180">
+      <c r="I28" s="173">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J28" s="113"/>
-      <c r="K28" s="113"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="113"/>
+      <c r="J28" s="191"/>
+      <c r="K28" s="191"/>
+      <c r="L28" s="191"/>
+      <c r="M28" s="191"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
@@ -9622,7 +10082,7 @@
       <c r="B29" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="118">
         <v>9419486251</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -9640,15 +10100,21 @@
       <c r="H29" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="I29" s="180">
+      <c r="I29" s="173">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J29" s="113" t="s">
+      <c r="J29" s="191" t="s">
         <v>411</v>
       </c>
-      <c r="K29" s="113"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="113"/>
+      <c r="K29" s="191" t="s">
+        <v>515</v>
+      </c>
+      <c r="L29" s="191" t="s">
+        <v>516</v>
+      </c>
+      <c r="M29" s="191" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
@@ -9657,7 +10123,7 @@
       <c r="B30" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="118">
         <v>7006544015</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -9675,13 +10141,13 @@
       <c r="H30" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="I30" s="180">
+      <c r="I30" s="173">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J30" s="113"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="113"/>
+      <c r="J30" s="191"/>
+      <c r="K30" s="191"/>
+      <c r="L30" s="191"/>
+      <c r="M30" s="191"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
@@ -9690,7 +10156,7 @@
       <c r="B31" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="118">
         <v>7051478004</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -9708,13 +10174,13 @@
       <c r="H31" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="I31" s="180">
+      <c r="I31" s="173">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J31" s="113"/>
-      <c r="K31" s="113"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="113"/>
+      <c r="J31" s="191"/>
+      <c r="K31" s="191"/>
+      <c r="L31" s="191"/>
+      <c r="M31" s="191"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
@@ -9723,7 +10189,7 @@
       <c r="B32" s="80" t="s">
         <v>296</v>
       </c>
-      <c r="C32" s="80">
+      <c r="C32" s="115">
         <v>9818149862</v>
       </c>
       <c r="D32" s="80" t="s">
@@ -9741,15 +10207,21 @@
       <c r="H32" s="95" t="s">
         <v>189</v>
       </c>
-      <c r="I32" s="185">
+      <c r="I32" s="178">
         <v>0.72569444444444453</v>
       </c>
-      <c r="J32" s="113" t="s">
+      <c r="J32" s="191" t="s">
         <v>411</v>
       </c>
-      <c r="K32" s="113"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="113"/>
+      <c r="K32" s="191" t="s">
+        <v>518</v>
+      </c>
+      <c r="L32" s="191" t="s">
+        <v>519</v>
+      </c>
+      <c r="M32" s="191" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
@@ -9758,7 +10230,7 @@
       <c r="B33" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="118">
         <v>9818297771</v>
       </c>
       <c r="D33" s="11" t="s">
@@ -9776,13 +10248,13 @@
       <c r="H33" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="I33" s="193" t="s">
+      <c r="I33" s="186" t="s">
         <v>295</v>
       </c>
-      <c r="J33" s="113"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="113"/>
-      <c r="M33" s="113"/>
+      <c r="J33" s="191"/>
+      <c r="K33" s="191"/>
+      <c r="L33" s="191"/>
+      <c r="M33" s="191"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
@@ -9791,7 +10263,7 @@
       <c r="B34" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="118">
         <v>9810950742</v>
       </c>
       <c r="D34" s="11" t="s">
@@ -9809,15 +10281,21 @@
       <c r="H34" s="34" t="s">
         <v>337</v>
       </c>
-      <c r="I34" s="186">
+      <c r="I34" s="179">
         <v>0.72569444444444453</v>
       </c>
       <c r="J34" s="86" t="s">
         <v>425</v>
       </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
+      <c r="K34" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="M34" s="199" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="15">
@@ -9826,7 +10304,7 @@
       <c r="B35" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="80">
+      <c r="C35" s="115">
         <v>9830044315</v>
       </c>
       <c r="D35" s="95" t="s">
@@ -9844,15 +10322,21 @@
       <c r="H35" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="I35" s="194">
+      <c r="I35" s="187">
         <v>21.15</v>
       </c>
       <c r="J35" s="98" t="s">
         <v>411</v>
       </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
+      <c r="K35" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="M35" s="6">
+        <v>9789857479</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
@@ -9861,7 +10345,7 @@
       <c r="B36" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="119">
         <v>8986872915</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -9879,15 +10363,21 @@
       <c r="H36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I36" s="184">
+      <c r="I36" s="177">
         <v>0.69097222222222221</v>
       </c>
-      <c r="J36" s="113" t="s">
+      <c r="J36" s="191" t="s">
         <v>426</v>
       </c>
-      <c r="K36" s="113"/>
-      <c r="L36" s="113"/>
-      <c r="M36" s="113"/>
+      <c r="K36" s="191" t="s">
+        <v>523</v>
+      </c>
+      <c r="L36" s="191" t="s">
+        <v>524</v>
+      </c>
+      <c r="M36" s="201" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="15">
@@ -9896,7 +10386,7 @@
       <c r="B37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="119">
         <v>9346356209</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -9914,13 +10404,13 @@
       <c r="H37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I37" s="184">
+      <c r="I37" s="177">
         <v>0.75</v>
       </c>
-      <c r="J37" s="113"/>
-      <c r="K37" s="113"/>
-      <c r="L37" s="113"/>
-      <c r="M37" s="113"/>
+      <c r="J37" s="191"/>
+      <c r="K37" s="191"/>
+      <c r="L37" s="191"/>
+      <c r="M37" s="201"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="15">
@@ -9929,7 +10419,7 @@
       <c r="B38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="119">
         <v>9502735121</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -9947,15 +10437,21 @@
       <c r="H38" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="I38" s="195">
+      <c r="I38" s="188">
         <v>18</v>
       </c>
-      <c r="J38" s="113" t="s">
+      <c r="J38" s="191" t="s">
         <v>411</v>
       </c>
-      <c r="K38" s="113"/>
-      <c r="L38" s="113"/>
-      <c r="M38" s="113"/>
+      <c r="K38" s="191" t="s">
+        <v>526</v>
+      </c>
+      <c r="L38" s="191" t="s">
+        <v>527</v>
+      </c>
+      <c r="M38" s="202" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="15">
@@ -9964,7 +10460,7 @@
       <c r="B39" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="95">
+      <c r="C39" s="115">
         <v>9866960555</v>
       </c>
       <c r="D39" s="95" t="s">
@@ -9982,13 +10478,13 @@
       <c r="H39" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="I39" s="196">
+      <c r="I39" s="189">
         <v>18</v>
       </c>
-      <c r="J39" s="113"/>
-      <c r="K39" s="113"/>
-      <c r="L39" s="113"/>
-      <c r="M39" s="113"/>
+      <c r="J39" s="191"/>
+      <c r="K39" s="191"/>
+      <c r="L39" s="191"/>
+      <c r="M39" s="191"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
@@ -9997,7 +10493,7 @@
       <c r="B40" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="80">
+      <c r="C40" s="115">
         <v>9848083057</v>
       </c>
       <c r="D40" s="95" t="s">
@@ -10015,13 +10511,13 @@
       <c r="H40" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="I40" s="196">
+      <c r="I40" s="189">
         <v>18</v>
       </c>
-      <c r="J40" s="113"/>
-      <c r="K40" s="113"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="113"/>
+      <c r="J40" s="191"/>
+      <c r="K40" s="191"/>
+      <c r="L40" s="191"/>
+      <c r="M40" s="191"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="15">
@@ -10030,7 +10526,7 @@
       <c r="B41" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="118">
         <v>9894247089</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -10048,15 +10544,21 @@
       <c r="H41" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="I41" s="180">
+      <c r="I41" s="173">
         <v>0.77777777777777779</v>
       </c>
       <c r="J41" s="86" t="s">
         <v>427</v>
       </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
+      <c r="K41" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="M41" s="199" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="15">
@@ -10065,7 +10567,7 @@
       <c r="B42" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="118">
         <v>9826044279</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -10083,15 +10585,21 @@
       <c r="H42" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="I42" s="180">
+      <c r="I42" s="173">
         <v>0.81944444444444398</v>
       </c>
-      <c r="J42" s="113" t="s">
+      <c r="J42" s="191" t="s">
         <v>428</v>
       </c>
-      <c r="K42" s="113"/>
-      <c r="L42" s="113"/>
-      <c r="M42" s="113"/>
+      <c r="K42" s="191" t="s">
+        <v>532</v>
+      </c>
+      <c r="L42" s="191" t="s">
+        <v>533</v>
+      </c>
+      <c r="M42" s="191" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="15">
@@ -10100,7 +10608,7 @@
       <c r="B43" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="118">
         <v>9826047847</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -10118,13 +10626,13 @@
       <c r="H43" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="I43" s="180">
+      <c r="I43" s="173">
         <v>0.81944444444444398</v>
       </c>
-      <c r="J43" s="113"/>
-      <c r="K43" s="113"/>
-      <c r="L43" s="113"/>
-      <c r="M43" s="113"/>
+      <c r="J43" s="191"/>
+      <c r="K43" s="191"/>
+      <c r="L43" s="191"/>
+      <c r="M43" s="191"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="15">
@@ -10133,7 +10641,7 @@
       <c r="B44" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="118">
         <v>8097952226</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -10151,15 +10659,21 @@
       <c r="H44" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="I44" s="180">
+      <c r="I44" s="173">
         <v>0.40277777777777773</v>
       </c>
-      <c r="J44" s="113" t="s">
+      <c r="J44" s="191" t="s">
         <v>429</v>
       </c>
-      <c r="K44" s="113"/>
-      <c r="L44" s="113"/>
-      <c r="M44" s="113"/>
+      <c r="K44" s="191" t="s">
+        <v>535</v>
+      </c>
+      <c r="L44" s="191" t="s">
+        <v>536</v>
+      </c>
+      <c r="M44" s="191" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="15">
@@ -10168,7 +10682,7 @@
       <c r="B45" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="118">
         <v>9869405747</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -10186,13 +10700,13 @@
       <c r="H45" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="I45" s="180">
+      <c r="I45" s="173">
         <v>0.84375</v>
       </c>
-      <c r="J45" s="113"/>
-      <c r="K45" s="113"/>
-      <c r="L45" s="113"/>
-      <c r="M45" s="113"/>
+      <c r="J45" s="191"/>
+      <c r="K45" s="191"/>
+      <c r="L45" s="191"/>
+      <c r="M45" s="191"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="15">
@@ -10201,7 +10715,7 @@
       <c r="B46" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="119">
         <v>9835177708</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -10219,15 +10733,21 @@
       <c r="H46" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I46" s="184">
+      <c r="I46" s="177">
         <v>0.29166666666666669</v>
       </c>
-      <c r="J46" s="113" t="s">
+      <c r="J46" s="191" t="s">
         <v>430</v>
       </c>
-      <c r="K46" s="113"/>
-      <c r="L46" s="113"/>
-      <c r="M46" s="113"/>
+      <c r="K46" s="191" t="s">
+        <v>538</v>
+      </c>
+      <c r="L46" s="191" t="s">
+        <v>539</v>
+      </c>
+      <c r="M46" s="202" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="15">
@@ -10236,7 +10756,7 @@
       <c r="B47" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="119">
         <v>7070377691</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -10254,13 +10774,13 @@
       <c r="H47" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I47" s="184">
+      <c r="I47" s="177">
         <v>0.69097222222222221</v>
       </c>
-      <c r="J47" s="113"/>
-      <c r="K47" s="113"/>
-      <c r="L47" s="113"/>
-      <c r="M47" s="113"/>
+      <c r="J47" s="191"/>
+      <c r="K47" s="191"/>
+      <c r="L47" s="191"/>
+      <c r="M47" s="202"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="15">
@@ -10269,7 +10789,7 @@
       <c r="B48" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="119">
         <v>9937737986</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -10287,15 +10807,21 @@
       <c r="H48" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="I48" s="193">
+      <c r="I48" s="186">
         <v>17.55</v>
       </c>
-      <c r="J48" s="113" t="s">
+      <c r="J48" s="191" t="s">
         <v>411</v>
       </c>
-      <c r="K48" s="113"/>
-      <c r="L48" s="113"/>
-      <c r="M48" s="113"/>
+      <c r="K48" s="191" t="s">
+        <v>541</v>
+      </c>
+      <c r="L48" s="191" t="s">
+        <v>542</v>
+      </c>
+      <c r="M48" s="191" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="15">
@@ -10304,7 +10830,7 @@
       <c r="B49" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="119">
         <v>9438468129</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -10322,13 +10848,13 @@
       <c r="H49" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="I49" s="193">
+      <c r="I49" s="186">
         <v>17.55</v>
       </c>
-      <c r="J49" s="113"/>
-      <c r="K49" s="113"/>
-      <c r="L49" s="113"/>
-      <c r="M49" s="113"/>
+      <c r="J49" s="191"/>
+      <c r="K49" s="191"/>
+      <c r="L49" s="191"/>
+      <c r="M49" s="191"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="15">
@@ -10337,7 +10863,7 @@
       <c r="B50" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="118">
         <v>7093391746</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -10355,13 +10881,13 @@
       <c r="H50" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="I50" s="193">
+      <c r="I50" s="186">
         <v>17.55</v>
       </c>
-      <c r="J50" s="113"/>
-      <c r="K50" s="113"/>
-      <c r="L50" s="113"/>
-      <c r="M50" s="113"/>
+      <c r="J50" s="191"/>
+      <c r="K50" s="191"/>
+      <c r="L50" s="191"/>
+      <c r="M50" s="191"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="15">
@@ -10370,7 +10896,7 @@
       <c r="B51" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="118">
         <v>9654340633</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -10388,15 +10914,21 @@
       <c r="H51" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="I51" s="193">
+      <c r="I51" s="186">
         <v>17.55</v>
       </c>
-      <c r="J51" s="113" t="s">
+      <c r="J51" s="191" t="s">
         <v>431</v>
       </c>
-      <c r="K51" s="113"/>
-      <c r="L51" s="113"/>
-      <c r="M51" s="113"/>
+      <c r="K51" s="191" t="s">
+        <v>543</v>
+      </c>
+      <c r="L51" s="191" t="s">
+        <v>544</v>
+      </c>
+      <c r="M51" s="191" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="15">
@@ -10405,7 +10937,7 @@
       <c r="B52" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="118">
         <v>7008950949</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -10423,13 +10955,13 @@
       <c r="H52" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="I52" s="193">
+      <c r="I52" s="186">
         <v>17.55</v>
       </c>
-      <c r="J52" s="113"/>
-      <c r="K52" s="113"/>
-      <c r="L52" s="113"/>
-      <c r="M52" s="113"/>
+      <c r="J52" s="191"/>
+      <c r="K52" s="191"/>
+      <c r="L52" s="191"/>
+      <c r="M52" s="191"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="15">
@@ -10438,7 +10970,7 @@
       <c r="B53" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="118">
         <v>9811384505</v>
       </c>
       <c r="D53" s="11" t="s">
@@ -10456,15 +10988,21 @@
       <c r="H53" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="I53" s="186">
+      <c r="I53" s="179">
         <v>0.72569444444444453</v>
       </c>
       <c r="J53" s="86" t="s">
         <v>432</v>
       </c>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
+      <c r="K53" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="M53" s="199" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="15">
@@ -10473,7 +11011,7 @@
       <c r="B54" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C54" s="119">
         <v>9226711139</v>
       </c>
       <c r="D54" s="14" t="s">
@@ -10491,15 +11029,21 @@
       <c r="H54" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="I54" s="180">
+      <c r="I54" s="173">
         <v>0.76041666666666663</v>
       </c>
       <c r="J54" s="86" t="s">
         <v>434</v>
       </c>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
+      <c r="K54" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="M54" s="199" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="15">
@@ -10508,7 +11052,7 @@
       <c r="B55" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="C55" s="42">
+      <c r="C55" s="197">
         <v>7276230239</v>
       </c>
       <c r="D55" s="14" t="s">
@@ -10526,15 +11070,21 @@
       <c r="H55" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="I55" s="180">
+      <c r="I55" s="173">
         <v>0.79513888888888884</v>
       </c>
       <c r="J55" s="86" t="s">
         <v>435</v>
       </c>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
+      <c r="K55" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="M55" s="199" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="15">
@@ -10543,7 +11093,7 @@
       <c r="B56" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="C56" s="80">
+      <c r="C56" s="115">
         <v>9979937885</v>
       </c>
       <c r="D56" s="95" t="s">
@@ -10561,15 +11111,21 @@
       <c r="H56" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="I56" s="182">
+      <c r="I56" s="175">
         <v>0.74652777777777801</v>
       </c>
       <c r="J56" s="98" t="s">
         <v>411</v>
       </c>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
+      <c r="K56" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="M56" s="199" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="15">
@@ -10578,7 +11134,7 @@
       <c r="B57" s="80" t="s">
         <v>314</v>
       </c>
-      <c r="C57" s="80">
+      <c r="C57" s="115">
         <v>9868398269</v>
       </c>
       <c r="D57" s="80" t="s">
@@ -10596,15 +11152,21 @@
       <c r="H57" s="95" t="s">
         <v>317</v>
       </c>
-      <c r="I57" s="185">
+      <c r="I57" s="178">
         <v>0.85416666666666663</v>
       </c>
-      <c r="J57" s="114" t="s">
+      <c r="J57" s="192" t="s">
         <v>411</v>
       </c>
-      <c r="K57" s="114"/>
-      <c r="L57" s="114"/>
-      <c r="M57" s="114"/>
+      <c r="K57" s="191" t="s">
+        <v>555</v>
+      </c>
+      <c r="L57" s="191" t="s">
+        <v>556</v>
+      </c>
+      <c r="M57" s="202" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="15">
@@ -10613,7 +11175,7 @@
       <c r="B58" s="80" t="s">
         <v>321</v>
       </c>
-      <c r="C58" s="80">
+      <c r="C58" s="115">
         <v>9013605782</v>
       </c>
       <c r="D58" s="80" t="s">
@@ -10631,13 +11193,13 @@
       <c r="H58" s="95" t="s">
         <v>317</v>
       </c>
-      <c r="I58" s="185">
+      <c r="I58" s="178">
         <v>0.85416666666666663</v>
       </c>
-      <c r="J58" s="114"/>
-      <c r="K58" s="114"/>
-      <c r="L58" s="114"/>
-      <c r="M58" s="114"/>
+      <c r="J58" s="192"/>
+      <c r="K58" s="191"/>
+      <c r="L58" s="191"/>
+      <c r="M58" s="191"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="15">
@@ -10646,7 +11208,7 @@
       <c r="B59" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="119">
         <v>9479472716</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -10664,15 +11226,21 @@
       <c r="H59" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="184">
+      <c r="I59" s="177">
         <v>0.81944444444444398</v>
       </c>
-      <c r="J59" s="113" t="s">
+      <c r="J59" s="191" t="s">
         <v>433</v>
       </c>
-      <c r="K59" s="113"/>
-      <c r="L59" s="113"/>
-      <c r="M59" s="113"/>
+      <c r="K59" s="193" t="s">
+        <v>494</v>
+      </c>
+      <c r="L59" s="193" t="s">
+        <v>495</v>
+      </c>
+      <c r="M59" s="193" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="15">
@@ -10681,7 +11249,7 @@
       <c r="B60" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="118">
         <v>8827869999</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -10699,13 +11267,13 @@
       <c r="H60" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I60" s="180">
+      <c r="I60" s="173">
         <v>0.81944444444444398</v>
       </c>
-      <c r="J60" s="113"/>
-      <c r="K60" s="113"/>
-      <c r="L60" s="113"/>
-      <c r="M60" s="113"/>
+      <c r="J60" s="191"/>
+      <c r="K60" s="193"/>
+      <c r="L60" s="193"/>
+      <c r="M60" s="193"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B61" s="80" t="s">
@@ -10729,11 +11297,109 @@
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
     </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J64" s="85" t="s">
+        <v>567</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="M64" s="199" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="65" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K65" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="M65" s="199" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="66" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K66" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="M66" s="199" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="67" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K67" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="M67" s="199" t="s">
+        <v>566</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I61">
     <sortCondition ref="F1"/>
   </sortState>
   <mergeCells count="60">
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="M26:M28"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="K48:K50"/>
+    <mergeCell ref="L48:L50"/>
+    <mergeCell ref="M48:M50"/>
     <mergeCell ref="K59:K60"/>
     <mergeCell ref="L59:L60"/>
     <mergeCell ref="M59:M60"/>
@@ -10743,57 +11409,6 @@
     <mergeCell ref="K57:K58"/>
     <mergeCell ref="L57:L58"/>
     <mergeCell ref="M57:M58"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="K48:K50"/>
-    <mergeCell ref="L48:L50"/>
-    <mergeCell ref="M48:M50"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="M26:M28"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J48:J50"/>
-    <mergeCell ref="J51:J52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10809,1409 +11424,1409 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="132" customWidth="1"/>
-    <col min="2" max="2" width="25" style="132" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" style="132" customWidth="1"/>
-    <col min="4" max="4" width="12" style="132" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="132"/>
-    <col min="6" max="7" width="8.81640625" style="132" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" style="132" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="132" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" style="132" customWidth="1"/>
-    <col min="11" max="16384" width="8.81640625" style="132"/>
+    <col min="1" max="1" width="4.81640625" style="127" customWidth="1"/>
+    <col min="2" max="2" width="25" style="127" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" style="127" customWidth="1"/>
+    <col min="4" max="4" width="12" style="127" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="127"/>
+    <col min="6" max="7" width="8.81640625" style="127" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" style="127" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" style="127" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" style="127" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="127"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="F1" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="119" t="s">
+      <c r="G1" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="119" t="s">
+      <c r="H1" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="167" t="s">
+      <c r="I1" s="161" t="s">
         <v>436</v>
       </c>
-      <c r="J1" s="134" t="s">
+      <c r="J1" s="121" t="s">
         <v>460</v>
       </c>
-      <c r="K1" s="134" t="s">
+      <c r="K1" s="121" t="s">
         <v>461</v>
       </c>
-      <c r="L1" s="134" t="s">
+      <c r="L1" s="121" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="134">
+      <c r="A2" s="121">
         <v>9</v>
       </c>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="120">
+      <c r="C2" s="115">
         <v>9704822022</v>
       </c>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="138">
+      <c r="E2" s="132">
         <v>0.28125</v>
       </c>
-      <c r="F2" s="139">
+      <c r="F2" s="133">
         <v>45234</v>
       </c>
-      <c r="G2" s="136">
+      <c r="G2" s="130">
         <v>5.9999999999999998E-193</v>
       </c>
-      <c r="H2" s="138">
+      <c r="H2" s="132">
         <v>19.3</v>
       </c>
-      <c r="I2" s="168" t="s">
+      <c r="I2" s="162" t="s">
         <v>423</v>
       </c>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="134">
+      <c r="A3" s="121">
         <v>63</v>
       </c>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="129" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="121">
+      <c r="C3" s="116">
         <v>9579757308</v>
       </c>
-      <c r="D3" s="140" t="s">
+      <c r="D3" s="134" t="s">
         <v>249</v>
       </c>
-      <c r="E3" s="141">
+      <c r="E3" s="135">
         <v>0.34722222222222227</v>
       </c>
-      <c r="F3" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G3" s="123" t="s">
+      <c r="F3" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G3" s="118" t="s">
         <v>250</v>
       </c>
-      <c r="H3" s="141">
+      <c r="H3" s="135">
         <v>0.75</v>
       </c>
-      <c r="I3" s="169" t="s">
+      <c r="I3" s="195" t="s">
         <v>408</v>
       </c>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="194"/>
+      <c r="L3" s="194"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="134">
+      <c r="A4" s="121">
         <v>101</v>
       </c>
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="129" t="s">
         <v>399</v>
       </c>
-      <c r="C4" s="122">
+      <c r="C4" s="117">
         <v>9689912897</v>
       </c>
-      <c r="D4" s="142" t="s">
+      <c r="D4" s="136" t="s">
         <v>249</v>
       </c>
-      <c r="E4" s="143">
+      <c r="E4" s="137">
         <v>0.34722222222222227</v>
       </c>
-      <c r="F4" s="144">
-        <v>45235</v>
-      </c>
-      <c r="G4" s="142" t="s">
+      <c r="F4" s="138">
+        <v>45235</v>
+      </c>
+      <c r="G4" s="136" t="s">
         <v>250</v>
       </c>
-      <c r="H4" s="143">
+      <c r="H4" s="137">
         <v>0.75</v>
       </c>
-      <c r="I4" s="169"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="194"/>
+      <c r="K4" s="194"/>
+      <c r="L4" s="194"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="134">
+      <c r="A5" s="121">
         <v>50</v>
       </c>
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="129" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="118" t="s">
         <v>193</v>
       </c>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="134" t="s">
         <v>196</v>
       </c>
-      <c r="E5" s="141">
+      <c r="E5" s="135">
         <v>0.36805555555555558</v>
       </c>
-      <c r="F5" s="133" t="s">
+      <c r="F5" s="128" t="s">
         <v>197</v>
       </c>
-      <c r="G5" s="140" t="s">
+      <c r="G5" s="134" t="s">
         <v>198</v>
       </c>
-      <c r="H5" s="141">
+      <c r="H5" s="135">
         <v>0.83333333333333337</v>
       </c>
-      <c r="I5" s="167" t="s">
+      <c r="I5" s="161" t="s">
         <v>409</v>
       </c>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="134">
+      <c r="A6" s="121">
         <v>42</v>
       </c>
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="130" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="115" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="145">
+      <c r="E6" s="139">
         <v>0.37152777777777773</v>
       </c>
-      <c r="F6" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G6" s="123" t="s">
+      <c r="F6" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G6" s="118" t="s">
         <v>171</v>
       </c>
-      <c r="H6" s="141">
+      <c r="H6" s="135">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I6" s="169" t="s">
+      <c r="I6" s="195" t="s">
         <v>410</v>
       </c>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
+      <c r="L6" s="194"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="134">
+      <c r="A7" s="121">
         <v>45</v>
       </c>
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="129" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="118" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="118" t="s">
         <v>170</v>
       </c>
-      <c r="E7" s="141">
+      <c r="E7" s="135">
         <v>0.37152777777777773</v>
       </c>
-      <c r="F7" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G7" s="146" t="s">
+      <c r="F7" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G7" s="140" t="s">
         <v>171</v>
       </c>
-      <c r="H7" s="141">
+      <c r="H7" s="135">
         <v>0.85416666666666663</v>
       </c>
-      <c r="I7" s="169"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="194"/>
+      <c r="L7" s="194"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="134">
+      <c r="A8" s="121">
         <v>57</v>
       </c>
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="129" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="123">
+      <c r="C8" s="118">
         <v>9842157565</v>
       </c>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="134" t="s">
         <v>220</v>
       </c>
-      <c r="E8" s="141">
+      <c r="E8" s="135">
         <v>0.3888888888888889</v>
       </c>
-      <c r="F8" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G8" s="123" t="s">
+      <c r="F8" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G8" s="118" t="s">
         <v>221</v>
       </c>
-      <c r="H8" s="141">
+      <c r="H8" s="135">
         <v>0.42708333333333331</v>
       </c>
-      <c r="I8" s="167" t="s">
+      <c r="I8" s="161" t="s">
         <v>412</v>
       </c>
-      <c r="J8" s="134"/>
-      <c r="K8" s="134"/>
-      <c r="L8" s="134"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="134">
+      <c r="A9" s="121">
         <v>69</v>
       </c>
-      <c r="B9" s="135" t="s">
+      <c r="B9" s="129" t="s">
         <v>270</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="118" t="s">
         <v>271</v>
       </c>
-      <c r="D9" s="123" t="s">
+      <c r="D9" s="118" t="s">
         <v>275</v>
       </c>
-      <c r="E9" s="141">
+      <c r="E9" s="135">
         <v>0.39930555555555558</v>
       </c>
-      <c r="F9" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G9" s="123" t="s">
+      <c r="F9" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G9" s="118" t="s">
         <v>277</v>
       </c>
-      <c r="H9" s="123" t="s">
+      <c r="H9" s="118" t="s">
         <v>278</v>
       </c>
-      <c r="I9" s="170" t="s">
+      <c r="I9" s="163" t="s">
         <v>413</v>
       </c>
-      <c r="J9" s="134"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="134"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="134">
+      <c r="A10" s="121">
         <v>13</v>
       </c>
-      <c r="B10" s="135" t="s">
+      <c r="B10" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="124">
+      <c r="C10" s="119">
         <v>9848194728</v>
       </c>
-      <c r="D10" s="147" t="s">
+      <c r="D10" s="141" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="148">
+      <c r="E10" s="142">
         <v>0.41319444444444442</v>
       </c>
-      <c r="F10" s="149">
-        <v>45235</v>
-      </c>
-      <c r="G10" s="129" t="s">
+      <c r="F10" s="143">
+        <v>45235</v>
+      </c>
+      <c r="G10" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="124">
+      <c r="H10" s="119">
         <v>15.55</v>
       </c>
-      <c r="I10" s="171" t="s">
+      <c r="I10" s="164" t="s">
         <v>439</v>
       </c>
-      <c r="J10" s="134"/>
-      <c r="K10" s="134"/>
-      <c r="L10" s="134"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="134">
+      <c r="A11" s="121">
         <v>88</v>
       </c>
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="130" t="s">
         <v>342</v>
       </c>
-      <c r="C11" s="120">
+      <c r="C11" s="115">
         <v>8971599998</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="115" t="s">
         <v>229</v>
       </c>
-      <c r="E11" s="150">
+      <c r="E11" s="144">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F11" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G11" s="123" t="s">
+      <c r="F11" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G11" s="118" t="s">
         <v>231</v>
       </c>
-      <c r="H11" s="151" t="s">
+      <c r="H11" s="145" t="s">
         <v>345</v>
       </c>
-      <c r="I11" s="167" t="s">
+      <c r="I11" s="161" t="s">
         <v>440</v>
       </c>
-      <c r="J11" s="134"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="134"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="134">
+      <c r="A12" s="121">
         <v>54</v>
       </c>
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="130" t="s">
         <v>207</v>
       </c>
-      <c r="C12" s="120">
+      <c r="C12" s="115">
         <v>9999392736</v>
       </c>
-      <c r="D12" s="152" t="s">
+      <c r="D12" s="146" t="s">
         <v>209</v>
       </c>
-      <c r="E12" s="150">
+      <c r="E12" s="144">
         <v>0.4236111111111111</v>
       </c>
-      <c r="F12" s="133" t="s">
+      <c r="F12" s="128" t="s">
         <v>210</v>
       </c>
-      <c r="G12" s="153" t="s">
+      <c r="G12" s="147" t="s">
         <v>211</v>
       </c>
-      <c r="H12" s="154">
+      <c r="H12" s="148">
         <v>0.87847222222222221</v>
       </c>
-      <c r="I12" s="167" t="s">
+      <c r="I12" s="161" t="s">
         <v>423</v>
       </c>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="134">
+      <c r="A13" s="121">
         <v>64</v>
       </c>
-      <c r="B13" s="136" t="s">
+      <c r="B13" s="130" t="s">
         <v>251</v>
       </c>
-      <c r="C13" s="125">
+      <c r="C13" s="120">
         <v>9818275954</v>
       </c>
-      <c r="D13" s="152" t="s">
+      <c r="D13" s="146" t="s">
         <v>253</v>
       </c>
-      <c r="E13" s="150">
+      <c r="E13" s="144">
         <v>0.4236111111111111</v>
       </c>
-      <c r="F13" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G13" s="153" t="s">
+      <c r="F13" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G13" s="147" t="s">
         <v>254</v>
       </c>
-      <c r="H13" s="154">
+      <c r="H13" s="148">
         <v>0.72569444444444453</v>
       </c>
-      <c r="I13" s="169" t="s">
+      <c r="I13" s="195" t="s">
         <v>423</v>
       </c>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="194"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="134">
+      <c r="A14" s="121">
         <v>87</v>
       </c>
-      <c r="B14" s="136" t="s">
+      <c r="B14" s="130" t="s">
         <v>338</v>
       </c>
-      <c r="C14" s="120">
+      <c r="C14" s="115">
         <v>8527271822</v>
       </c>
-      <c r="D14" s="152" t="s">
+      <c r="D14" s="146" t="s">
         <v>340</v>
       </c>
-      <c r="E14" s="150">
+      <c r="E14" s="144">
         <v>0.4236111111111111</v>
       </c>
-      <c r="F14" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G14" s="123" t="s">
+      <c r="F14" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G14" s="118" t="s">
         <v>341</v>
       </c>
-      <c r="H14" s="155">
+      <c r="H14" s="149">
         <v>0.87847222222222221</v>
       </c>
-      <c r="I14" s="169"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
+      <c r="I14" s="195"/>
+      <c r="J14" s="194"/>
+      <c r="K14" s="194"/>
+      <c r="L14" s="194"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="134">
+      <c r="A15" s="121">
         <v>59</v>
       </c>
-      <c r="B15" s="135" t="s">
+      <c r="B15" s="129" t="s">
         <v>227</v>
       </c>
-      <c r="C15" s="123">
+      <c r="C15" s="118">
         <v>6363454432</v>
       </c>
-      <c r="D15" s="123" t="s">
+      <c r="D15" s="118" t="s">
         <v>229</v>
       </c>
-      <c r="E15" s="141">
+      <c r="E15" s="135">
         <v>0.43402777777777773</v>
       </c>
-      <c r="F15" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G15" s="123" t="s">
+      <c r="F15" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G15" s="118" t="s">
         <v>231</v>
       </c>
-      <c r="H15" s="123">
+      <c r="H15" s="118">
         <v>18.100000000000001</v>
       </c>
-      <c r="I15" s="170" t="s">
+      <c r="I15" s="163" t="s">
         <v>421</v>
       </c>
-      <c r="J15" s="134"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="134"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="134">
+      <c r="A16" s="121">
         <v>39</v>
       </c>
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="120">
+      <c r="C16" s="115">
         <v>9820148845</v>
       </c>
-      <c r="D16" s="120" t="s">
+      <c r="D16" s="115" t="s">
         <v>157</v>
       </c>
-      <c r="E16" s="145">
+      <c r="E16" s="139">
         <v>0.4375</v>
       </c>
-      <c r="F16" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G16" s="123" t="s">
+      <c r="F16" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G16" s="118" t="s">
         <v>158</v>
       </c>
-      <c r="H16" s="141">
+      <c r="H16" s="135">
         <v>0.78125</v>
       </c>
-      <c r="I16" s="169" t="s">
+      <c r="I16" s="195" t="s">
         <v>423</v>
       </c>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="134">
+      <c r="A17" s="121">
         <v>41</v>
       </c>
-      <c r="B17" s="136" t="s">
+      <c r="B17" s="130" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="120">
+      <c r="C17" s="115">
         <v>9820009850</v>
       </c>
-      <c r="D17" s="120" t="s">
+      <c r="D17" s="115" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="145">
+      <c r="E17" s="139">
         <v>0.4375</v>
       </c>
-      <c r="F17" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G17" s="140" t="s">
+      <c r="F17" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G17" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="H17" s="141">
+      <c r="H17" s="135">
         <v>0.69444444444444453</v>
       </c>
-      <c r="I17" s="169"/>
-      <c r="J17" s="126"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="126"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="194"/>
+      <c r="K17" s="194"/>
+      <c r="L17" s="194"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="134">
+      <c r="A18" s="121">
         <v>49</v>
       </c>
-      <c r="B18" s="135" t="s">
+      <c r="B18" s="129" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="123">
+      <c r="C18" s="118">
         <v>9822011504</v>
       </c>
-      <c r="D18" s="140" t="s">
+      <c r="D18" s="134" t="s">
         <v>157</v>
       </c>
-      <c r="E18" s="141">
+      <c r="E18" s="135">
         <v>0.4375</v>
       </c>
-      <c r="F18" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G18" s="140" t="s">
+      <c r="F18" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G18" s="134" t="s">
         <v>163</v>
       </c>
-      <c r="H18" s="141">
+      <c r="H18" s="135">
         <v>0.76041666666666663</v>
       </c>
-      <c r="I18" s="169"/>
-      <c r="J18" s="126"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="126"/>
+      <c r="I18" s="195"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="194"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="134">
+      <c r="A19" s="121">
         <v>62</v>
       </c>
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="129" t="s">
         <v>244</v>
       </c>
-      <c r="C19" s="121">
+      <c r="C19" s="116">
         <v>9743503223</v>
       </c>
-      <c r="D19" s="123" t="s">
+      <c r="D19" s="118" t="s">
         <v>229</v>
       </c>
-      <c r="E19" s="141">
+      <c r="E19" s="135">
         <v>0.4375</v>
       </c>
-      <c r="F19" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G19" s="123" t="s">
+      <c r="F19" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G19" s="118" t="s">
         <v>246</v>
       </c>
-      <c r="H19" s="141">
+      <c r="H19" s="135">
         <v>0.79861111111111116</v>
       </c>
-      <c r="I19" s="167" t="s">
+      <c r="I19" s="161" t="s">
         <v>442</v>
       </c>
-      <c r="J19" s="134"/>
-      <c r="K19" s="134"/>
-      <c r="L19" s="134"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="121"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="134">
+      <c r="A20" s="121">
         <v>77</v>
       </c>
-      <c r="B20" s="135" t="s">
+      <c r="B20" s="129" t="s">
         <v>305</v>
       </c>
-      <c r="C20" s="123">
+      <c r="C20" s="118">
         <v>8080115245</v>
       </c>
-      <c r="D20" s="156" t="s">
+      <c r="D20" s="150" t="s">
         <v>157</v>
       </c>
-      <c r="E20" s="157">
+      <c r="E20" s="151">
         <v>0.4375</v>
       </c>
-      <c r="F20" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G20" s="123" t="s">
+      <c r="F20" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G20" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="H20" s="157">
+      <c r="H20" s="151">
         <v>0.76041666666666663</v>
       </c>
-      <c r="I20" s="169" t="s">
+      <c r="I20" s="195" t="s">
         <v>423</v>
       </c>
-      <c r="J20" s="126"/>
-      <c r="K20" s="126"/>
-      <c r="L20" s="126"/>
+      <c r="J20" s="194"/>
+      <c r="K20" s="194"/>
+      <c r="L20" s="194"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="134">
+      <c r="A21" s="121">
         <v>81</v>
       </c>
-      <c r="B21" s="135" t="s">
+      <c r="B21" s="129" t="s">
         <v>318</v>
       </c>
-      <c r="C21" s="123">
+      <c r="C21" s="118">
         <v>7405190564</v>
       </c>
-      <c r="D21" s="140" t="s">
+      <c r="D21" s="134" t="s">
         <v>157</v>
       </c>
-      <c r="E21" s="141">
+      <c r="E21" s="135">
         <v>0.4375</v>
       </c>
-      <c r="F21" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G21" s="123" t="s">
+      <c r="F21" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G21" s="118" t="s">
         <v>320</v>
       </c>
-      <c r="H21" s="141">
+      <c r="H21" s="135">
         <v>0.85416666666666663</v>
       </c>
-      <c r="I21" s="169"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="194"/>
+      <c r="K21" s="194"/>
+      <c r="L21" s="194"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="134">
+      <c r="A22" s="121">
         <v>90</v>
       </c>
-      <c r="B22" s="135" t="s">
+      <c r="B22" s="129" t="s">
         <v>353</v>
       </c>
-      <c r="C22" s="123">
+      <c r="C22" s="118">
         <v>9131973517</v>
       </c>
-      <c r="D22" s="140" t="s">
+      <c r="D22" s="134" t="s">
         <v>157</v>
       </c>
-      <c r="E22" s="141">
+      <c r="E22" s="135">
         <v>0.4375</v>
       </c>
-      <c r="F22" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G22" s="123" t="s">
+      <c r="F22" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G22" s="118" t="s">
         <v>355</v>
       </c>
-      <c r="H22" s="141">
+      <c r="H22" s="135">
         <v>0.84375</v>
       </c>
-      <c r="I22" s="169"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="194"/>
+      <c r="K22" s="194"/>
+      <c r="L22" s="194"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="134">
+      <c r="A23" s="121">
         <v>94</v>
       </c>
-      <c r="B23" s="135" t="s">
+      <c r="B23" s="129" t="s">
         <v>364</v>
       </c>
-      <c r="C23" s="121">
+      <c r="C23" s="116">
         <v>9911049839</v>
       </c>
-      <c r="D23" s="123" t="s">
+      <c r="D23" s="118" t="s">
         <v>366</v>
       </c>
-      <c r="E23" s="141">
+      <c r="E23" s="135">
         <v>0.4375</v>
       </c>
-      <c r="F23" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G23" s="123" t="s">
+      <c r="F23" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G23" s="118" t="s">
         <v>269</v>
       </c>
-      <c r="H23" s="141">
+      <c r="H23" s="135">
         <v>0.76041666666666663</v>
       </c>
-      <c r="I23" s="167" t="s">
+      <c r="I23" s="161" t="s">
         <v>424</v>
       </c>
-      <c r="J23" s="134"/>
-      <c r="K23" s="134"/>
-      <c r="L23" s="134"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="121"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="134">
+      <c r="A24" s="121">
         <v>18</v>
       </c>
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="123">
+      <c r="C24" s="118">
         <v>7003520146</v>
       </c>
-      <c r="D24" s="123" t="s">
+      <c r="D24" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="148">
+      <c r="E24" s="142">
         <v>0.4513888888888889</v>
       </c>
-      <c r="F24" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G24" s="123" t="s">
+      <c r="F24" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G24" s="118" t="s">
         <v>96</v>
       </c>
-      <c r="H24" s="158">
+      <c r="H24" s="152">
         <v>21.15</v>
       </c>
-      <c r="I24" s="169" t="s">
+      <c r="I24" s="195" t="s">
         <v>423</v>
       </c>
-      <c r="J24" s="126"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="126"/>
+      <c r="J24" s="194"/>
+      <c r="K24" s="194"/>
+      <c r="L24" s="194"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="134">
+      <c r="A25" s="121">
         <v>19</v>
       </c>
-      <c r="B25" s="135" t="s">
+      <c r="B25" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="123">
+      <c r="C25" s="118">
         <v>9674915330</v>
       </c>
-      <c r="D25" s="123" t="s">
+      <c r="D25" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="148">
+      <c r="E25" s="142">
         <v>0.4513888888888889</v>
       </c>
-      <c r="F25" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G25" s="123" t="s">
+      <c r="F25" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G25" s="118" t="s">
         <v>92</v>
       </c>
-      <c r="H25" s="158">
+      <c r="H25" s="152">
         <v>18</v>
       </c>
-      <c r="I25" s="169"/>
-      <c r="J25" s="126"/>
-      <c r="K25" s="126"/>
-      <c r="L25" s="126"/>
+      <c r="I25" s="195"/>
+      <c r="J25" s="194"/>
+      <c r="K25" s="194"/>
+      <c r="L25" s="194"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="134">
+      <c r="A26" s="121">
         <v>22</v>
       </c>
-      <c r="B26" s="135" t="s">
+      <c r="B26" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="123">
+      <c r="C26" s="118">
         <v>8013740798</v>
       </c>
-      <c r="D26" s="123" t="s">
+      <c r="D26" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="148">
+      <c r="E26" s="142">
         <v>0.4513888888888889</v>
       </c>
-      <c r="F26" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G26" s="123" t="s">
+      <c r="F26" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G26" s="118" t="s">
         <v>92</v>
       </c>
-      <c r="H26" s="158">
+      <c r="H26" s="152">
         <v>18</v>
       </c>
-      <c r="I26" s="169"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="194"/>
+      <c r="K26" s="194"/>
+      <c r="L26" s="194"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="134">
+      <c r="A27" s="121">
         <v>23</v>
       </c>
-      <c r="B27" s="135" t="s">
+      <c r="B27" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="123">
+      <c r="C27" s="118">
         <v>9433040487</v>
       </c>
-      <c r="D27" s="123" t="s">
+      <c r="D27" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="148">
+      <c r="E27" s="142">
         <v>0.4513888888888889</v>
       </c>
-      <c r="F27" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G27" s="123" t="s">
+      <c r="F27" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G27" s="118" t="s">
         <v>96</v>
       </c>
-      <c r="H27" s="158">
+      <c r="H27" s="152">
         <v>21.15</v>
       </c>
-      <c r="I27" s="169" t="s">
+      <c r="I27" s="195" t="s">
         <v>423</v>
       </c>
-      <c r="J27" s="126"/>
-      <c r="K27" s="126"/>
-      <c r="L27" s="126"/>
+      <c r="J27" s="194"/>
+      <c r="K27" s="194"/>
+      <c r="L27" s="194"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="134">
+      <c r="A28" s="121">
         <v>34</v>
       </c>
-      <c r="B28" s="135" t="s">
+      <c r="B28" s="129" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="123">
+      <c r="C28" s="118">
         <v>9831124633</v>
       </c>
-      <c r="D28" s="123" t="s">
+      <c r="D28" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="148">
+      <c r="E28" s="142">
         <v>0.4513888888888889</v>
       </c>
-      <c r="F28" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G28" s="123" t="s">
+      <c r="F28" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G28" s="118" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="158">
+      <c r="H28" s="152">
         <v>18</v>
       </c>
-      <c r="I28" s="169"/>
-      <c r="J28" s="126"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="126"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="194"/>
+      <c r="K28" s="194"/>
+      <c r="L28" s="194"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="134">
+      <c r="A29" s="121">
         <v>98</v>
       </c>
-      <c r="B29" s="135" t="s">
+      <c r="B29" s="129" t="s">
         <v>381</v>
       </c>
-      <c r="C29" s="127">
+      <c r="C29" s="122">
         <v>9831773350</v>
       </c>
-      <c r="D29" s="159" t="s">
+      <c r="D29" s="153" t="s">
         <v>383</v>
       </c>
-      <c r="E29" s="143">
+      <c r="E29" s="137">
         <v>0.4513888888888889</v>
       </c>
-      <c r="F29" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G29" s="159" t="s">
+      <c r="F29" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G29" s="153" t="s">
         <v>385</v>
       </c>
-      <c r="H29" s="142">
+      <c r="H29" s="136">
         <v>21.15</v>
       </c>
-      <c r="I29" s="169"/>
-      <c r="J29" s="126"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="126"/>
+      <c r="I29" s="195"/>
+      <c r="J29" s="194"/>
+      <c r="K29" s="194"/>
+      <c r="L29" s="194"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="134">
+      <c r="A30" s="121">
         <v>96</v>
       </c>
-      <c r="B30" s="136" t="s">
+      <c r="B30" s="130" t="s">
         <v>369</v>
       </c>
-      <c r="C30" s="128">
+      <c r="C30" s="123">
         <v>9446029196</v>
       </c>
-      <c r="D30" s="160" t="s">
+      <c r="D30" s="154" t="s">
         <v>372</v>
       </c>
-      <c r="E30" s="161">
+      <c r="E30" s="155">
         <v>0.46180555555555558</v>
       </c>
-      <c r="F30" s="139">
-        <v>45235</v>
-      </c>
-      <c r="G30" s="160" t="s">
+      <c r="F30" s="133">
+        <v>45235</v>
+      </c>
+      <c r="G30" s="154" t="s">
         <v>374</v>
       </c>
-      <c r="H30" s="128" t="s">
+      <c r="H30" s="123" t="s">
         <v>375</v>
       </c>
-      <c r="I30" s="172" t="s">
+      <c r="I30" s="165" t="s">
         <v>443</v>
       </c>
-      <c r="J30" s="134"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="134"/>
+      <c r="J30" s="121"/>
+      <c r="K30" s="121"/>
+      <c r="L30" s="121"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="134">
+      <c r="A31" s="121">
         <v>72</v>
       </c>
-      <c r="B31" s="135" t="s">
+      <c r="B31" s="129" t="s">
         <v>289</v>
       </c>
-      <c r="C31" s="123">
+      <c r="C31" s="118">
         <v>9650545355</v>
       </c>
-      <c r="D31" s="123" t="s">
+      <c r="D31" s="118" t="s">
         <v>292</v>
       </c>
-      <c r="E31" s="141">
+      <c r="E31" s="135">
         <v>0.47222222222222227</v>
       </c>
-      <c r="F31" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G31" s="123" t="s">
+      <c r="F31" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G31" s="118" t="s">
         <v>294</v>
       </c>
-      <c r="H31" s="123" t="s">
+      <c r="H31" s="118" t="s">
         <v>295</v>
       </c>
-      <c r="I31" s="169" t="s">
+      <c r="I31" s="195" t="s">
         <v>423</v>
       </c>
-      <c r="J31" s="126"/>
-      <c r="K31" s="126"/>
-      <c r="L31" s="126"/>
+      <c r="J31" s="194"/>
+      <c r="K31" s="194"/>
+      <c r="L31" s="194"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="134">
+      <c r="A32" s="121">
         <v>75</v>
       </c>
-      <c r="B32" s="135" t="s">
+      <c r="B32" s="129" t="s">
         <v>301</v>
       </c>
-      <c r="C32" s="123">
+      <c r="C32" s="118">
         <v>9791608022</v>
       </c>
-      <c r="D32" s="123" t="s">
+      <c r="D32" s="118" t="s">
         <v>292</v>
       </c>
-      <c r="E32" s="141">
+      <c r="E32" s="135">
         <v>0.47222222222222227</v>
       </c>
-      <c r="F32" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G32" s="123" t="s">
+      <c r="F32" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G32" s="118" t="s">
         <v>294</v>
       </c>
-      <c r="H32" s="123" t="s">
+      <c r="H32" s="118" t="s">
         <v>295</v>
       </c>
-      <c r="I32" s="169"/>
-      <c r="J32" s="126"/>
-      <c r="K32" s="126"/>
-      <c r="L32" s="126"/>
+      <c r="I32" s="195"/>
+      <c r="J32" s="194"/>
+      <c r="K32" s="194"/>
+      <c r="L32" s="194"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="134">
+      <c r="A33" s="121">
         <v>76</v>
       </c>
-      <c r="B33" s="135" t="s">
+      <c r="B33" s="129" t="s">
         <v>303</v>
       </c>
-      <c r="C33" s="123">
+      <c r="C33" s="118">
         <v>7905116456</v>
       </c>
-      <c r="D33" s="123" t="s">
+      <c r="D33" s="118" t="s">
         <v>292</v>
       </c>
-      <c r="E33" s="141">
+      <c r="E33" s="135">
         <v>0.47222222222222227</v>
       </c>
-      <c r="F33" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G33" s="123" t="s">
+      <c r="F33" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G33" s="118" t="s">
         <v>294</v>
       </c>
-      <c r="H33" s="123" t="s">
+      <c r="H33" s="118" t="s">
         <v>295</v>
       </c>
-      <c r="I33" s="169"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="126"/>
+      <c r="I33" s="195"/>
+      <c r="J33" s="194"/>
+      <c r="K33" s="194"/>
+      <c r="L33" s="194"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="134">
+      <c r="A34" s="121">
         <v>38</v>
       </c>
-      <c r="B34" s="136" t="s">
+      <c r="B34" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="C34" s="120">
+      <c r="C34" s="115">
         <v>9821022621</v>
       </c>
-      <c r="D34" s="120">
+      <c r="D34" s="115">
         <v>5.9999999999999999E-257</v>
       </c>
-      <c r="E34" s="145">
+      <c r="E34" s="139">
         <v>0.5</v>
       </c>
-      <c r="F34" s="139">
-        <v>45235</v>
-      </c>
-      <c r="G34" s="162" t="s">
+      <c r="F34" s="133">
+        <v>45235</v>
+      </c>
+      <c r="G34" s="156" t="s">
         <v>154</v>
       </c>
-      <c r="H34" s="145">
+      <c r="H34" s="139">
         <v>0.76041666666666663</v>
       </c>
-      <c r="I34" s="168"/>
-      <c r="J34" s="134"/>
-      <c r="K34" s="134"/>
-      <c r="L34" s="134"/>
+      <c r="I34" s="162"/>
+      <c r="J34" s="121"/>
+      <c r="K34" s="121"/>
+      <c r="L34" s="121"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="134">
+      <c r="A35" s="121">
         <v>8</v>
       </c>
-      <c r="B35" s="135" t="s">
+      <c r="B35" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="129">
+      <c r="C35" s="124">
         <v>9440403647</v>
       </c>
-      <c r="D35" s="163" t="s">
+      <c r="D35" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="164">
+      <c r="E35" s="158">
         <v>0.53125</v>
       </c>
-      <c r="F35" s="149">
-        <v>45235</v>
-      </c>
-      <c r="G35" s="163" t="s">
+      <c r="F35" s="143">
+        <v>45235</v>
+      </c>
+      <c r="G35" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="H35" s="164">
+      <c r="H35" s="158">
         <v>0.72916666666666663</v>
       </c>
-      <c r="I35" s="169" t="s">
+      <c r="I35" s="195" t="s">
         <v>423</v>
       </c>
-      <c r="J35" s="126"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="126"/>
+      <c r="J35" s="194"/>
+      <c r="K35" s="194"/>
+      <c r="L35" s="194"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="134">
+      <c r="A36" s="121">
         <v>58</v>
       </c>
-      <c r="B36" s="123" t="s">
+      <c r="B36" s="118" t="s">
         <v>222</v>
       </c>
-      <c r="C36" s="123">
+      <c r="C36" s="118">
         <v>9945133244</v>
       </c>
-      <c r="D36" s="158" t="s">
+      <c r="D36" s="152" t="s">
         <v>225</v>
       </c>
-      <c r="E36" s="141">
+      <c r="E36" s="135">
         <v>0.53125</v>
       </c>
-      <c r="F36" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G36" s="158" t="s">
+      <c r="F36" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G36" s="152" t="s">
         <v>226</v>
       </c>
-      <c r="H36" s="151">
+      <c r="H36" s="145">
         <v>0.69791666666666663</v>
       </c>
-      <c r="I36" s="169"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="126"/>
-      <c r="L36" s="126"/>
+      <c r="I36" s="195"/>
+      <c r="J36" s="194"/>
+      <c r="K36" s="194"/>
+      <c r="L36" s="194"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="134">
+      <c r="A37" s="121">
         <v>65</v>
       </c>
-      <c r="B37" s="123" t="s">
+      <c r="B37" s="118" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="121">
+      <c r="C37" s="116">
         <v>9916149015</v>
       </c>
-      <c r="D37" s="123" t="s">
+      <c r="D37" s="118" t="s">
         <v>225</v>
       </c>
-      <c r="E37" s="141">
+      <c r="E37" s="135">
         <v>0.53125</v>
       </c>
-      <c r="F37" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G37" s="123" t="s">
+      <c r="F37" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G37" s="118" t="s">
         <v>226</v>
       </c>
-      <c r="H37" s="151" t="s">
+      <c r="H37" s="145" t="s">
         <v>257</v>
       </c>
-      <c r="I37" s="169"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="126"/>
-      <c r="L37" s="126"/>
+      <c r="I37" s="195"/>
+      <c r="J37" s="194"/>
+      <c r="K37" s="194"/>
+      <c r="L37" s="194"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="134">
+      <c r="A38" s="121">
         <v>89</v>
       </c>
-      <c r="B38" s="120" t="s">
+      <c r="B38" s="115" t="s">
         <v>347</v>
       </c>
-      <c r="C38" s="120">
+      <c r="C38" s="115">
         <v>9880562917</v>
       </c>
-      <c r="D38" s="120" t="s">
+      <c r="D38" s="115" t="s">
         <v>225</v>
       </c>
-      <c r="E38" s="150">
+      <c r="E38" s="144">
         <v>0.53125</v>
       </c>
-      <c r="F38" s="139">
-        <v>45235</v>
-      </c>
-      <c r="G38" s="120" t="s">
+      <c r="F38" s="133">
+        <v>45235</v>
+      </c>
+      <c r="G38" s="115" t="s">
         <v>350</v>
       </c>
-      <c r="H38" s="165" t="s">
+      <c r="H38" s="159" t="s">
         <v>351</v>
       </c>
-      <c r="I38" s="168" t="s">
+      <c r="I38" s="162" t="s">
         <v>423</v>
       </c>
-      <c r="J38" s="134"/>
-      <c r="K38" s="134"/>
-      <c r="L38" s="134"/>
+      <c r="J38" s="121"/>
+      <c r="K38" s="121"/>
+      <c r="L38" s="121"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="134">
+      <c r="A39" s="121">
         <v>100</v>
       </c>
-      <c r="B39" s="142" t="s">
+      <c r="B39" s="136" t="s">
         <v>393</v>
       </c>
-      <c r="C39" s="130">
+      <c r="C39" s="125">
         <v>9999563652</v>
       </c>
-      <c r="D39" s="166" t="s">
+      <c r="D39" s="160" t="s">
         <v>395</v>
       </c>
-      <c r="E39" s="143">
+      <c r="E39" s="137">
         <v>0.53472222222222221</v>
       </c>
-      <c r="F39" s="144">
-        <v>45235</v>
-      </c>
-      <c r="G39" s="142" t="s">
+      <c r="F39" s="138">
+        <v>45235</v>
+      </c>
+      <c r="G39" s="136" t="s">
         <v>396</v>
       </c>
-      <c r="H39" s="143">
+      <c r="H39" s="137">
         <v>0.77083333333333337</v>
       </c>
-      <c r="I39" s="167" t="s">
+      <c r="I39" s="161" t="s">
         <v>426</v>
       </c>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="134"/>
+      <c r="J39" s="121"/>
+      <c r="K39" s="121"/>
+      <c r="L39" s="121"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="134">
+      <c r="A40" s="121">
         <v>21</v>
       </c>
-      <c r="B40" s="123" t="s">
+      <c r="B40" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="123">
+      <c r="C40" s="118">
         <v>8684869092</v>
       </c>
-      <c r="D40" s="123" t="s">
+      <c r="D40" s="118" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="141">
+      <c r="E40" s="135">
         <v>0.56597222222222221</v>
       </c>
-      <c r="F40" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G40" s="141" t="s">
+      <c r="F40" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G40" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="H40" s="141" t="s">
+      <c r="H40" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="I40" s="173" t="s">
+      <c r="I40" s="166" t="s">
         <v>444</v>
       </c>
-      <c r="J40" s="134"/>
-      <c r="K40" s="134"/>
-      <c r="L40" s="134"/>
+      <c r="J40" s="121"/>
+      <c r="K40" s="121"/>
+      <c r="L40" s="121"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="134">
+      <c r="A41" s="121">
         <v>40</v>
       </c>
-      <c r="B41" s="120" t="s">
+      <c r="B41" s="115" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="120" t="s">
+      <c r="C41" s="115" t="s">
         <v>160</v>
       </c>
-      <c r="D41" s="120" t="s">
+      <c r="D41" s="115" t="s">
         <v>162</v>
       </c>
-      <c r="E41" s="145">
+      <c r="E41" s="139">
         <v>0.73263888888888884</v>
       </c>
-      <c r="F41" s="139">
-        <v>45235</v>
-      </c>
-      <c r="G41" s="120" t="s">
+      <c r="F41" s="133">
+        <v>45235</v>
+      </c>
+      <c r="G41" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="H41" s="145">
+      <c r="H41" s="139">
         <v>0.76041666666666663</v>
       </c>
-      <c r="I41" s="131" t="s">
+      <c r="I41" s="126" t="s">
         <v>414</v>
       </c>
-      <c r="J41" s="134"/>
-      <c r="K41" s="134"/>
-      <c r="L41" s="134"/>
+      <c r="J41" s="121"/>
+      <c r="K41" s="121"/>
+      <c r="L41" s="121"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="134"/>
-      <c r="B42" s="120" t="s">
+      <c r="A42" s="121"/>
+      <c r="B42" s="115" t="s">
         <v>441</v>
       </c>
-      <c r="C42" s="131"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="131"/>
-      <c r="G42" s="131"/>
-      <c r="H42" s="131"/>
-      <c r="I42" s="131" t="s">
+      <c r="C42" s="126"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="126" t="s">
         <v>445</v>
       </c>
-      <c r="J42" s="134"/>
-      <c r="K42" s="134"/>
-      <c r="L42" s="134"/>
+      <c r="J42" s="121"/>
+      <c r="K42" s="121"/>
+      <c r="L42" s="121"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="134"/>
-      <c r="B43" s="123" t="s">
+      <c r="A43" s="121"/>
+      <c r="B43" s="118" t="s">
         <v>454</v>
       </c>
-      <c r="C43" s="134"/>
-      <c r="D43" s="133" t="s">
+      <c r="C43" s="121"/>
+      <c r="D43" s="128" t="s">
         <v>229</v>
       </c>
-      <c r="E43" s="157">
+      <c r="E43" s="151">
         <v>0.43402777777777773</v>
       </c>
-      <c r="F43" s="134"/>
-      <c r="G43" s="134"/>
-      <c r="H43" s="134"/>
-      <c r="I43" s="126" t="s">
+      <c r="F43" s="121"/>
+      <c r="G43" s="121"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="194" t="s">
         <v>429</v>
       </c>
-      <c r="J43" s="126"/>
-      <c r="K43" s="126"/>
-      <c r="L43" s="126"/>
+      <c r="J43" s="194"/>
+      <c r="K43" s="194"/>
+      <c r="L43" s="194"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="134"/>
-      <c r="B44" s="123" t="s">
+      <c r="A44" s="121"/>
+      <c r="B44" s="118" t="s">
         <v>455</v>
       </c>
-      <c r="C44" s="134"/>
-      <c r="D44" s="133" t="s">
+      <c r="C44" s="121"/>
+      <c r="D44" s="128" t="s">
         <v>229</v>
       </c>
-      <c r="E44" s="157">
+      <c r="E44" s="151">
         <v>0.43402777777777773</v>
       </c>
-      <c r="F44" s="134"/>
-      <c r="G44" s="134"/>
-      <c r="H44" s="134"/>
-      <c r="I44" s="126"/>
-      <c r="J44" s="126"/>
-      <c r="K44" s="126"/>
-      <c r="L44" s="126"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="121"/>
+      <c r="H44" s="121"/>
+      <c r="I44" s="194"/>
+      <c r="J44" s="194"/>
+      <c r="K44" s="194"/>
+      <c r="L44" s="194"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H41">
     <sortCondition ref="E1"/>
   </sortState>
   <mergeCells count="40">
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="L31:L33"/>
     <mergeCell ref="J35:J37"/>
     <mergeCell ref="K35:K37"/>
     <mergeCell ref="L35:L37"/>
     <mergeCell ref="J43:J44"/>
     <mergeCell ref="K43:K44"/>
     <mergeCell ref="L43:L44"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="I43:I44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12235,106 +12850,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="39" x14ac:dyDescent="0.35">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="167" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="F1" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="119" t="s">
+      <c r="G1" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="119" t="s">
+      <c r="H1" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="134" t="s">
+      <c r="I1" s="121" t="s">
         <v>436</v>
       </c>
-      <c r="J1" s="134" t="s">
+      <c r="J1" s="121" t="s">
         <v>460</v>
       </c>
-      <c r="K1" s="134" t="s">
+      <c r="K1" s="121" t="s">
         <v>461</v>
       </c>
-      <c r="L1" s="134" t="s">
+      <c r="L1" s="121" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="134">
+      <c r="A2" s="121">
         <v>99</v>
       </c>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="136" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="130">
+      <c r="C2" s="125">
         <v>9345271175</v>
       </c>
-      <c r="D2" s="175" t="s">
+      <c r="D2" s="168" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="176">
+      <c r="E2" s="169">
         <v>0.30902777777777779</v>
       </c>
-      <c r="F2" s="177">
+      <c r="F2" s="170">
         <v>45236</v>
       </c>
-      <c r="G2" s="175" t="s">
+      <c r="G2" s="168" t="s">
         <v>392</v>
       </c>
-      <c r="H2" s="176">
+      <c r="H2" s="169">
         <v>0.48958333333333331</v>
       </c>
-      <c r="I2" s="134" t="s">
+      <c r="I2" s="121" t="s">
         <v>446</v>
       </c>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="134">
+      <c r="A3" s="121">
         <v>17</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="118" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="123">
+      <c r="C3" s="118">
         <v>9874352969</v>
       </c>
-      <c r="D3" s="123" t="s">
+      <c r="D3" s="118" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="148">
+      <c r="E3" s="142">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F3" s="133">
-        <v>45235</v>
-      </c>
-      <c r="G3" s="123" t="s">
+      <c r="F3" s="128">
+        <v>45235</v>
+      </c>
+      <c r="G3" s="118" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="158">
+      <c r="H3" s="152">
         <v>18</v>
       </c>
-      <c r="I3" s="134" t="s">
+      <c r="I3" s="121" t="s">
         <v>409</v>
       </c>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I4">
@@ -12379,7 +12994,7 @@
       <c r="F1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="178" t="s">
+      <c r="G1" s="171" t="s">
         <v>436</v>
       </c>
       <c r="H1" s="18" t="s">
@@ -12451,7 +13066,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -12492,7 +13107,7 @@
       <c r="G1" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="179" t="s">
+      <c r="H1" s="172" t="s">
         <v>436</v>
       </c>
       <c r="I1" s="6" t="s">
@@ -12701,12 +13316,12 @@
       <c r="G8" s="76">
         <v>0.48958333333333331</v>
       </c>
-      <c r="H8" s="116" t="s">
+      <c r="H8" s="196" t="s">
         <v>451</v>
       </c>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="196"/>
+      <c r="K8" s="196"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
@@ -12730,10 +13345,10 @@
       <c r="G9" s="74">
         <v>0.48958333333333331</v>
       </c>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="196"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
@@ -12815,12 +13430,12 @@
       <c r="G12" s="76">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H12" s="116" t="s">
+      <c r="H12" s="196" t="s">
         <v>423</v>
       </c>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="196"/>
+      <c r="K12" s="196"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
@@ -12844,10 +13459,10 @@
       <c r="G13" s="76">
         <v>0.54166666666666696</v>
       </c>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="196"/>
+      <c r="K13" s="196"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
@@ -12871,10 +13486,10 @@
       <c r="G14" s="74">
         <v>0.54166666666666696</v>
       </c>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="196"/>
+      <c r="K14" s="196"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
@@ -12956,12 +13571,12 @@
       <c r="G17" s="76">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H17" s="116" t="s">
+      <c r="H17" s="196" t="s">
         <v>451</v>
       </c>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="196"/>
+      <c r="K17" s="196"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
@@ -12985,10 +13600,10 @@
       <c r="G18" s="76">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="196"/>
+      <c r="K18" s="196"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
@@ -13041,12 +13656,12 @@
       <c r="G20" s="74">
         <v>0.69791666666666663</v>
       </c>
-      <c r="H20" s="116" t="s">
+      <c r="H20" s="196" t="s">
         <v>451</v>
       </c>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
+      <c r="I20" s="196"/>
+      <c r="J20" s="196"/>
+      <c r="K20" s="196"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
@@ -13070,10 +13685,10 @@
       <c r="G21" s="74">
         <v>0.69791666666666663</v>
       </c>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
+      <c r="H21" s="196"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="196"/>
+      <c r="K21" s="196"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
@@ -13126,12 +13741,12 @@
       <c r="G23" s="75">
         <v>0.72569444444444453</v>
       </c>
-      <c r="H23" s="116" t="s">
+      <c r="H23" s="196" t="s">
         <v>423</v>
       </c>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="196"/>
+      <c r="K23" s="196"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
@@ -13155,10 +13770,10 @@
       <c r="G24" s="75">
         <v>0.72569444444444453</v>
       </c>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
+      <c r="H24" s="196"/>
+      <c r="I24" s="196"/>
+      <c r="J24" s="196"/>
+      <c r="K24" s="196"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
@@ -13182,12 +13797,12 @@
       <c r="G25" s="75">
         <v>0.72569444444444453</v>
       </c>
-      <c r="H25" s="116" t="s">
+      <c r="H25" s="196" t="s">
         <v>423</v>
       </c>
-      <c r="I25" s="116"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
+      <c r="I25" s="196"/>
+      <c r="J25" s="196"/>
+      <c r="K25" s="196"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
@@ -13211,10 +13826,10 @@
       <c r="G26" s="75">
         <v>0.72569444444444453</v>
       </c>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
+      <c r="H26" s="196"/>
+      <c r="I26" s="196"/>
+      <c r="J26" s="196"/>
+      <c r="K26" s="196"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
@@ -13238,10 +13853,10 @@
       <c r="G27" s="75">
         <v>0.72569444444444453</v>
       </c>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
+      <c r="H27" s="196"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="196"/>
+      <c r="K27" s="196"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
@@ -13265,12 +13880,12 @@
       <c r="G28" s="74">
         <v>0.72916666666666663</v>
       </c>
-      <c r="H28" s="116" t="s">
+      <c r="H28" s="196" t="s">
         <v>451</v>
       </c>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="196"/>
+      <c r="K28" s="196"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
@@ -13294,10 +13909,10 @@
       <c r="G29" s="91">
         <v>0.72916666666666663</v>
       </c>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="196"/>
+      <c r="K29" s="196"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
@@ -13350,12 +13965,12 @@
       <c r="G31" s="74">
         <v>0.74652777777777779</v>
       </c>
-      <c r="H31" s="116" t="s">
+      <c r="H31" s="196" t="s">
         <v>423</v>
       </c>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="196"/>
+      <c r="K31" s="196"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
@@ -13379,10 +13994,10 @@
       <c r="G32" s="74">
         <v>0.74652777777777779</v>
       </c>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
+      <c r="H32" s="196"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="196"/>
+      <c r="K32" s="196"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
@@ -13406,10 +14021,10 @@
       <c r="G33" s="74">
         <v>0.74652777777777779</v>
       </c>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
+      <c r="H33" s="196"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="196"/>
+      <c r="K33" s="196"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
@@ -13433,12 +14048,12 @@
       <c r="G34" s="74">
         <v>0.74652777777777779</v>
       </c>
-      <c r="H34" s="116" t="s">
+      <c r="H34" s="196" t="s">
         <v>451</v>
       </c>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="196"/>
+      <c r="K34" s="196"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="15">
@@ -13462,10 +14077,10 @@
       <c r="G35" s="74">
         <v>0.74652777777777779</v>
       </c>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="196"/>
+      <c r="K35" s="196"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
@@ -13518,12 +14133,12 @@
       <c r="G37" s="76">
         <v>0.75</v>
       </c>
-      <c r="H37" s="116" t="s">
+      <c r="H37" s="196" t="s">
         <v>423</v>
       </c>
-      <c r="I37" s="116"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
+      <c r="I37" s="196"/>
+      <c r="J37" s="196"/>
+      <c r="K37" s="196"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="15">
@@ -13547,10 +14162,10 @@
       <c r="G38" s="76">
         <v>0.75</v>
       </c>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
+      <c r="H38" s="196"/>
+      <c r="I38" s="196"/>
+      <c r="J38" s="196"/>
+      <c r="K38" s="196"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="15">
@@ -13574,12 +14189,12 @@
       <c r="G39" s="76">
         <v>0.75</v>
       </c>
-      <c r="H39" s="116" t="s">
+      <c r="H39" s="196" t="s">
         <v>451</v>
       </c>
-      <c r="I39" s="116"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="116"/>
+      <c r="I39" s="196"/>
+      <c r="J39" s="196"/>
+      <c r="K39" s="196"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
@@ -13603,10 +14218,10 @@
       <c r="G40" s="76">
         <v>0.75</v>
       </c>
-      <c r="H40" s="116"/>
-      <c r="I40" s="116"/>
-      <c r="J40" s="116"/>
-      <c r="K40" s="116"/>
+      <c r="H40" s="196"/>
+      <c r="I40" s="196"/>
+      <c r="J40" s="196"/>
+      <c r="K40" s="196"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="15">
@@ -13630,12 +14245,12 @@
       <c r="G41" s="76">
         <v>0.75</v>
       </c>
-      <c r="H41" s="116" t="s">
+      <c r="H41" s="196" t="s">
         <v>451</v>
       </c>
-      <c r="I41" s="116"/>
-      <c r="J41" s="116"/>
-      <c r="K41" s="116"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="196"/>
+      <c r="K41" s="196"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="15">
@@ -13659,10 +14274,10 @@
       <c r="G42" s="76">
         <v>0.75</v>
       </c>
-      <c r="H42" s="116"/>
-      <c r="I42" s="116"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="116"/>
+      <c r="H42" s="196"/>
+      <c r="I42" s="196"/>
+      <c r="J42" s="196"/>
+      <c r="K42" s="196"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="15">
@@ -13686,12 +14301,12 @@
       <c r="G43" s="75">
         <v>0.75</v>
       </c>
-      <c r="H43" s="116" t="s">
+      <c r="H43" s="196" t="s">
         <v>423</v>
       </c>
-      <c r="I43" s="116"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="116"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="196"/>
+      <c r="K43" s="196"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="15">
@@ -13715,10 +14330,10 @@
       <c r="G44" s="75">
         <v>0.75</v>
       </c>
-      <c r="H44" s="116"/>
-      <c r="I44" s="116"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="116"/>
+      <c r="H44" s="196"/>
+      <c r="I44" s="196"/>
+      <c r="J44" s="196"/>
+      <c r="K44" s="196"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="15">
@@ -13742,10 +14357,10 @@
       <c r="G45" s="75">
         <v>0.75</v>
       </c>
-      <c r="H45" s="116"/>
-      <c r="I45" s="116"/>
-      <c r="J45" s="116"/>
-      <c r="K45" s="116"/>
+      <c r="H45" s="196"/>
+      <c r="I45" s="196"/>
+      <c r="J45" s="196"/>
+      <c r="K45" s="196"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="15">
@@ -13769,12 +14384,12 @@
       <c r="G46" s="75">
         <v>0.75</v>
       </c>
-      <c r="H46" s="116" t="s">
+      <c r="H46" s="196" t="s">
         <v>451</v>
       </c>
-      <c r="I46" s="116"/>
-      <c r="J46" s="116"/>
-      <c r="K46" s="116"/>
+      <c r="I46" s="196"/>
+      <c r="J46" s="196"/>
+      <c r="K46" s="196"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="15">
@@ -13798,10 +14413,10 @@
       <c r="G47" s="75">
         <v>0.75</v>
       </c>
-      <c r="H47" s="116"/>
-      <c r="I47" s="116"/>
-      <c r="J47" s="116"/>
-      <c r="K47" s="116"/>
+      <c r="H47" s="196"/>
+      <c r="I47" s="196"/>
+      <c r="J47" s="196"/>
+      <c r="K47" s="196"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="15">
@@ -13825,12 +14440,12 @@
       <c r="G48" s="76">
         <v>0.75694444444444453</v>
       </c>
-      <c r="H48" s="116" t="s">
+      <c r="H48" s="196" t="s">
         <v>423</v>
       </c>
-      <c r="I48" s="116"/>
-      <c r="J48" s="116"/>
-      <c r="K48" s="116"/>
+      <c r="I48" s="196"/>
+      <c r="J48" s="196"/>
+      <c r="K48" s="196"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="15">
@@ -13854,10 +14469,10 @@
       <c r="G49" s="76">
         <v>0.75694444444444453</v>
       </c>
-      <c r="H49" s="116"/>
-      <c r="I49" s="116"/>
-      <c r="J49" s="116"/>
-      <c r="K49" s="116"/>
+      <c r="H49" s="196"/>
+      <c r="I49" s="196"/>
+      <c r="J49" s="196"/>
+      <c r="K49" s="196"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="15">
@@ -13881,12 +14496,12 @@
       <c r="G50" s="74">
         <v>0.76041666666666663</v>
       </c>
-      <c r="H50" s="116" t="s">
+      <c r="H50" s="196" t="s">
         <v>423</v>
       </c>
-      <c r="I50" s="116"/>
-      <c r="J50" s="116"/>
-      <c r="K50" s="116"/>
+      <c r="I50" s="196"/>
+      <c r="J50" s="196"/>
+      <c r="K50" s="196"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="15">
@@ -13910,10 +14525,10 @@
       <c r="G51" s="74">
         <v>0.76041666666666663</v>
       </c>
-      <c r="H51" s="116"/>
-      <c r="I51" s="116"/>
-      <c r="J51" s="116"/>
-      <c r="K51" s="116"/>
+      <c r="H51" s="196"/>
+      <c r="I51" s="196"/>
+      <c r="J51" s="196"/>
+      <c r="K51" s="196"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="15">
@@ -13937,10 +14552,10 @@
       <c r="G52" s="74">
         <v>0.76041666666666663</v>
       </c>
-      <c r="H52" s="116"/>
-      <c r="I52" s="116"/>
-      <c r="J52" s="116"/>
-      <c r="K52" s="116"/>
+      <c r="H52" s="196"/>
+      <c r="I52" s="196"/>
+      <c r="J52" s="196"/>
+      <c r="K52" s="196"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="15">
@@ -13964,12 +14579,12 @@
       <c r="G53" s="74">
         <v>0.76041666666666663</v>
       </c>
-      <c r="H53" s="116" t="s">
+      <c r="H53" s="196" t="s">
         <v>423</v>
       </c>
-      <c r="I53" s="116"/>
-      <c r="J53" s="116"/>
-      <c r="K53" s="116"/>
+      <c r="I53" s="196"/>
+      <c r="J53" s="196"/>
+      <c r="K53" s="196"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="15">
@@ -13993,10 +14608,10 @@
       <c r="G54" s="77">
         <v>0.76041666666666663</v>
       </c>
-      <c r="H54" s="116"/>
-      <c r="I54" s="116"/>
-      <c r="J54" s="116"/>
-      <c r="K54" s="116"/>
+      <c r="H54" s="196"/>
+      <c r="I54" s="196"/>
+      <c r="J54" s="196"/>
+      <c r="K54" s="196"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="15">
@@ -14020,10 +14635,10 @@
       <c r="G55" s="74">
         <v>0.76041666666666663</v>
       </c>
-      <c r="H55" s="116"/>
-      <c r="I55" s="116"/>
-      <c r="J55" s="116"/>
-      <c r="K55" s="116"/>
+      <c r="H55" s="196"/>
+      <c r="I55" s="196"/>
+      <c r="J55" s="196"/>
+      <c r="K55" s="196"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="15">
@@ -14047,12 +14662,12 @@
       <c r="G56" s="74">
         <v>0.76041666666666663</v>
       </c>
-      <c r="H56" s="116" t="s">
+      <c r="H56" s="196" t="s">
         <v>423</v>
       </c>
-      <c r="I56" s="116"/>
-      <c r="J56" s="116"/>
-      <c r="K56" s="116"/>
+      <c r="I56" s="196"/>
+      <c r="J56" s="196"/>
+      <c r="K56" s="196"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="15">
@@ -14076,10 +14691,10 @@
       <c r="G57" s="74">
         <v>0.76041666666666663</v>
       </c>
-      <c r="H57" s="116"/>
-      <c r="I57" s="116"/>
-      <c r="J57" s="116"/>
-      <c r="K57" s="116"/>
+      <c r="H57" s="196"/>
+      <c r="I57" s="196"/>
+      <c r="J57" s="196"/>
+      <c r="K57" s="196"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="15">
@@ -14103,10 +14718,10 @@
       <c r="G58" s="74">
         <v>0.76041666666666663</v>
       </c>
-      <c r="H58" s="116"/>
-      <c r="I58" s="116"/>
-      <c r="J58" s="116"/>
-      <c r="K58" s="116"/>
+      <c r="H58" s="196"/>
+      <c r="I58" s="196"/>
+      <c r="J58" s="196"/>
+      <c r="K58" s="196"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="15">
@@ -14130,12 +14745,12 @@
       <c r="G59" s="74">
         <v>0.76736111111111116</v>
       </c>
-      <c r="H59" s="116" t="s">
+      <c r="H59" s="196" t="s">
         <v>451</v>
       </c>
-      <c r="I59" s="116"/>
-      <c r="J59" s="116"/>
-      <c r="K59" s="116"/>
+      <c r="I59" s="196"/>
+      <c r="J59" s="196"/>
+      <c r="K59" s="196"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="15">
@@ -14159,10 +14774,10 @@
       <c r="G60" s="74">
         <v>0.76736111111111116</v>
       </c>
-      <c r="H60" s="116"/>
-      <c r="I60" s="116"/>
-      <c r="J60" s="116"/>
-      <c r="K60" s="116"/>
+      <c r="H60" s="196"/>
+      <c r="I60" s="196"/>
+      <c r="J60" s="196"/>
+      <c r="K60" s="196"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="15">
@@ -14186,12 +14801,12 @@
       <c r="G61" s="74">
         <v>0.76736111111111116</v>
       </c>
-      <c r="H61" s="116" t="s">
+      <c r="H61" s="196" t="s">
         <v>423</v>
       </c>
-      <c r="I61" s="116"/>
-      <c r="J61" s="116"/>
-      <c r="K61" s="116"/>
+      <c r="I61" s="196"/>
+      <c r="J61" s="196"/>
+      <c r="K61" s="196"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="15">
@@ -14215,10 +14830,10 @@
       <c r="G62" s="74">
         <v>0.76736111111111116</v>
       </c>
-      <c r="H62" s="116"/>
-      <c r="I62" s="116"/>
-      <c r="J62" s="116"/>
-      <c r="K62" s="116"/>
+      <c r="H62" s="196"/>
+      <c r="I62" s="196"/>
+      <c r="J62" s="196"/>
+      <c r="K62" s="196"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="15">
@@ -14242,10 +14857,10 @@
       <c r="G63" s="63">
         <v>0.77083333333333337</v>
       </c>
-      <c r="H63" s="116"/>
-      <c r="I63" s="116"/>
-      <c r="J63" s="116"/>
-      <c r="K63" s="116"/>
+      <c r="H63" s="196"/>
+      <c r="I63" s="196"/>
+      <c r="J63" s="196"/>
+      <c r="K63" s="196"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="15">
@@ -14298,12 +14913,12 @@
       <c r="G65" s="77">
         <v>0.78125</v>
       </c>
-      <c r="H65" s="116" t="s">
+      <c r="H65" s="196" t="s">
         <v>423</v>
       </c>
-      <c r="I65" s="116"/>
-      <c r="J65" s="116"/>
-      <c r="K65" s="116"/>
+      <c r="I65" s="196"/>
+      <c r="J65" s="196"/>
+      <c r="K65" s="196"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="15">
@@ -14327,10 +14942,10 @@
       <c r="G66" s="74">
         <v>0.78125</v>
       </c>
-      <c r="H66" s="116"/>
-      <c r="I66" s="116"/>
-      <c r="J66" s="116"/>
-      <c r="K66" s="116"/>
+      <c r="H66" s="196"/>
+      <c r="I66" s="196"/>
+      <c r="J66" s="196"/>
+      <c r="K66" s="196"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="15">
@@ -14354,10 +14969,10 @@
       <c r="G67" s="63">
         <v>0.78125</v>
       </c>
-      <c r="H67" s="116"/>
-      <c r="I67" s="116"/>
-      <c r="J67" s="116"/>
-      <c r="K67" s="116"/>
+      <c r="H67" s="196"/>
+      <c r="I67" s="196"/>
+      <c r="J67" s="196"/>
+      <c r="K67" s="196"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="15">
@@ -14381,12 +14996,12 @@
       <c r="G68" s="74">
         <v>0.79513888888888884</v>
       </c>
-      <c r="H68" s="116" t="s">
+      <c r="H68" s="196" t="s">
         <v>423</v>
       </c>
-      <c r="I68" s="116"/>
-      <c r="J68" s="116"/>
-      <c r="K68" s="116"/>
+      <c r="I68" s="196"/>
+      <c r="J68" s="196"/>
+      <c r="K68" s="196"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="15">
@@ -14410,10 +15025,10 @@
       <c r="G69" s="74">
         <v>0.79513888888888884</v>
       </c>
-      <c r="H69" s="116"/>
-      <c r="I69" s="116"/>
-      <c r="J69" s="116"/>
-      <c r="K69" s="116"/>
+      <c r="H69" s="196"/>
+      <c r="I69" s="196"/>
+      <c r="J69" s="196"/>
+      <c r="K69" s="196"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="15">
@@ -14437,10 +15052,10 @@
       <c r="G70" s="74">
         <v>0.79513888888888884</v>
       </c>
-      <c r="H70" s="116"/>
-      <c r="I70" s="116"/>
-      <c r="J70" s="116"/>
-      <c r="K70" s="116"/>
+      <c r="H70" s="196"/>
+      <c r="I70" s="196"/>
+      <c r="J70" s="196"/>
+      <c r="K70" s="196"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="15">
@@ -14522,12 +15137,12 @@
       <c r="G73" s="76">
         <v>0.81944444444444398</v>
       </c>
-      <c r="H73" s="116" t="s">
+      <c r="H73" s="196" t="s">
         <v>451</v>
       </c>
-      <c r="I73" s="116"/>
-      <c r="J73" s="116"/>
-      <c r="K73" s="116"/>
+      <c r="I73" s="196"/>
+      <c r="J73" s="196"/>
+      <c r="K73" s="196"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="15">
@@ -14551,10 +15166,10 @@
       <c r="G74" s="74">
         <v>0.81944444444444398</v>
       </c>
-      <c r="H74" s="116"/>
-      <c r="I74" s="116"/>
-      <c r="J74" s="116"/>
-      <c r="K74" s="116"/>
+      <c r="H74" s="196"/>
+      <c r="I74" s="196"/>
+      <c r="J74" s="196"/>
+      <c r="K74" s="196"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="15">
@@ -14578,12 +15193,12 @@
       <c r="G75" s="74">
         <v>0.81944444444444398</v>
       </c>
-      <c r="H75" s="116" t="s">
+      <c r="H75" s="196" t="s">
         <v>451</v>
       </c>
-      <c r="I75" s="116"/>
-      <c r="J75" s="116"/>
-      <c r="K75" s="116"/>
+      <c r="I75" s="196"/>
+      <c r="J75" s="196"/>
+      <c r="K75" s="196"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="15">
@@ -14607,10 +15222,10 @@
       <c r="G76" s="74">
         <v>0.81944444444444398</v>
       </c>
-      <c r="H76" s="116"/>
-      <c r="I76" s="116"/>
-      <c r="J76" s="116"/>
-      <c r="K76" s="116"/>
+      <c r="H76" s="196"/>
+      <c r="I76" s="196"/>
+      <c r="J76" s="196"/>
+      <c r="K76" s="196"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="15">
@@ -14663,12 +15278,12 @@
       <c r="G78" s="74">
         <v>0.88541666666666663</v>
       </c>
-      <c r="H78" s="116" t="s">
+      <c r="H78" s="196" t="s">
         <v>451</v>
       </c>
-      <c r="I78" s="116"/>
-      <c r="J78" s="116"/>
-      <c r="K78" s="116"/>
+      <c r="I78" s="196"/>
+      <c r="J78" s="196"/>
+      <c r="K78" s="196"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="15">
@@ -14692,10 +15307,10 @@
       <c r="G79" s="74">
         <v>0.88541666666666663</v>
       </c>
-      <c r="H79" s="116"/>
-      <c r="I79" s="116"/>
-      <c r="J79" s="116"/>
-      <c r="K79" s="116"/>
+      <c r="H79" s="196"/>
+      <c r="I79" s="196"/>
+      <c r="J79" s="196"/>
+      <c r="K79" s="196"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="15">
@@ -14748,12 +15363,12 @@
       <c r="G81" s="74">
         <v>0.85416666666666663</v>
       </c>
-      <c r="H81" s="116" t="s">
+      <c r="H81" s="196" t="s">
         <v>451</v>
       </c>
-      <c r="I81" s="116"/>
-      <c r="J81" s="116"/>
-      <c r="K81" s="116"/>
+      <c r="I81" s="196"/>
+      <c r="J81" s="196"/>
+      <c r="K81" s="196"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="15">
@@ -14777,10 +15392,10 @@
       <c r="G82" s="74">
         <v>0.85416666666666663</v>
       </c>
-      <c r="H82" s="116"/>
-      <c r="I82" s="116"/>
-      <c r="J82" s="116"/>
-      <c r="K82" s="116"/>
+      <c r="H82" s="196"/>
+      <c r="I82" s="196"/>
+      <c r="J82" s="196"/>
+      <c r="K82" s="196"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="15">
@@ -14804,12 +15419,12 @@
       <c r="G83" s="76">
         <v>0.84375</v>
       </c>
-      <c r="H83" s="116" t="s">
+      <c r="H83" s="196" t="s">
         <v>451</v>
       </c>
-      <c r="I83" s="116"/>
-      <c r="J83" s="116"/>
-      <c r="K83" s="116"/>
+      <c r="I83" s="196"/>
+      <c r="J83" s="196"/>
+      <c r="K83" s="196"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="15">
@@ -14833,10 +15448,10 @@
       <c r="G84" s="74">
         <v>0.85416666666666663</v>
       </c>
-      <c r="H84" s="116"/>
-      <c r="I84" s="116"/>
-      <c r="J84" s="116"/>
-      <c r="K84" s="116"/>
+      <c r="H84" s="196"/>
+      <c r="I84" s="196"/>
+      <c r="J84" s="196"/>
+      <c r="K84" s="196"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="15">
@@ -14860,12 +15475,12 @@
       <c r="G85" s="75">
         <v>0.85416666666666663</v>
       </c>
-      <c r="H85" s="116" t="s">
+      <c r="H85" s="196" t="s">
         <v>423</v>
       </c>
-      <c r="I85" s="116"/>
-      <c r="J85" s="116"/>
-      <c r="K85" s="116"/>
+      <c r="I85" s="196"/>
+      <c r="J85" s="196"/>
+      <c r="K85" s="196"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="15">
@@ -14889,10 +15504,10 @@
       <c r="G86" s="75">
         <v>0.85416666666666663</v>
       </c>
-      <c r="H86" s="116"/>
-      <c r="I86" s="116"/>
-      <c r="J86" s="116"/>
-      <c r="K86" s="116"/>
+      <c r="H86" s="196"/>
+      <c r="I86" s="196"/>
+      <c r="J86" s="196"/>
+      <c r="K86" s="196"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="15">
@@ -14945,12 +15560,12 @@
       <c r="G88" s="76">
         <v>0.88541666666666663</v>
       </c>
-      <c r="H88" s="116" t="s">
+      <c r="H88" s="196" t="s">
         <v>423</v>
       </c>
-      <c r="I88" s="116"/>
-      <c r="J88" s="116"/>
-      <c r="K88" s="116"/>
+      <c r="I88" s="196"/>
+      <c r="J88" s="196"/>
+      <c r="K88" s="196"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="15">
@@ -14974,10 +15589,10 @@
       <c r="G89" s="76">
         <v>0.88541666666666663</v>
       </c>
-      <c r="H89" s="116"/>
-      <c r="I89" s="116"/>
-      <c r="J89" s="116"/>
-      <c r="K89" s="116"/>
+      <c r="H89" s="196"/>
+      <c r="I89" s="196"/>
+      <c r="J89" s="196"/>
+      <c r="K89" s="196"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="15">
@@ -15001,10 +15616,10 @@
       <c r="G90" s="76">
         <v>0.88541666666666663</v>
       </c>
-      <c r="H90" s="116"/>
-      <c r="I90" s="116"/>
-      <c r="J90" s="116"/>
-      <c r="K90" s="116"/>
+      <c r="H90" s="196"/>
+      <c r="I90" s="196"/>
+      <c r="J90" s="196"/>
+      <c r="K90" s="196"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="15">
@@ -15150,106 +15765,6 @@
     <sortCondition ref="G76"/>
   </sortState>
   <mergeCells count="116">
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="K65:K67"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="J68:J70"/>
-    <mergeCell ref="K68:K70"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="K56:K58"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="K50:K52"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="H61:H63"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="H46:H47"/>
     <mergeCell ref="H83:H84"/>
     <mergeCell ref="H85:H86"/>
     <mergeCell ref="H88:H90"/>
@@ -15266,6 +15781,106 @@
     <mergeCell ref="H78:H79"/>
     <mergeCell ref="H81:H82"/>
     <mergeCell ref="H53:H55"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="K56:K58"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="K65:K67"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="J68:J70"/>
+    <mergeCell ref="K68:K70"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
   </mergeCells>
   <conditionalFormatting sqref="B18">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -15342,12 +15957,12 @@
       <c r="F2" s="74">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G2" s="112" t="s">
+      <c r="G2" s="190" t="s">
         <v>423</v>
       </c>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
@@ -15368,10 +15983,10 @@
       <c r="F3" s="74">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
@@ -15392,10 +16007,10 @@
       <c r="F4" s="74">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="190"/>
+      <c r="I4" s="190"/>
+      <c r="J4" s="190"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
@@ -15416,12 +16031,12 @@
       <c r="F5" s="74">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G5" s="112" t="s">
+      <c r="G5" s="190" t="s">
         <v>423</v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
+      <c r="H5" s="190"/>
+      <c r="I5" s="190"/>
+      <c r="J5" s="190"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
@@ -15442,10 +16057,10 @@
       <c r="F6" s="74">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="190"/>
+      <c r="J6" s="190"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
@@ -15466,10 +16081,10 @@
       <c r="F7" s="74">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="190"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="15">

--- a/Aakansha Cab Requirements - 31st Oct 23 - Copy.xlsx
+++ b/Aakansha Cab Requirements - 31st Oct 23 - Copy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fisglobal-my.sharepoint.com/personal/hemalatha_jayabalan_fisglobal_com/Documents/e3024537_Backup/D_Drive/Hema's/SVT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e3024537\OneDrive - FIS\e3024537_Backup\D_Drive\Hema's\SVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{2352BD95-8B95-8B40-8070-63E32E2B6186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FB9F891-D702-4876-A14D-A8E07342C203}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671556F1-E779-42EF-8F12-57D6FC1CB7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="565">
   <si>
     <t>S.no</t>
   </si>
@@ -1563,15 +1563,6 @@
   </si>
   <si>
     <t>Guest Name</t>
-  </si>
-  <si>
-    <t>Paneerselvam</t>
-  </si>
-  <si>
-    <t>TN10AY4960</t>
-  </si>
-  <si>
-    <t>8637414560</t>
   </si>
   <si>
     <t>Govind</t>
@@ -2050,7 +2041,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2108,11 +2099,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2605,6 +2622,13 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2618,30 +2642,35 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8784,12 +8813,12 @@
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C2" s="6"/>
-      <c r="D2" s="190" t="s">
+      <c r="D2" s="193" t="s">
         <v>450</v>
       </c>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C3" s="6"/>
@@ -8861,12 +8890,12 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="D9" s="190" t="s">
+      <c r="D9" s="193" t="s">
         <v>450</v>
       </c>
-      <c r="E9" s="190"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="190"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.35">
       <c r="D10" s="15" t="s">
@@ -8950,10 +8979,10 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N64" sqref="N64"/>
+      <selection pane="bottomRight" activeCell="J39" sqref="J39:J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9046,13 +9075,13 @@
         <v>408</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="M2" s="199" t="s">
-        <v>466</v>
+        <v>489</v>
+      </c>
+      <c r="M2" s="192" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -9062,7 +9091,7 @@
       <c r="B3" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="C3" s="197">
+      <c r="C3" s="190">
         <v>9455102129</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -9087,13 +9116,13 @@
         <v>409</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="M3" s="199" t="s">
-        <v>469</v>
+        <v>465</v>
+      </c>
+      <c r="M3" s="192" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -9128,13 +9157,13 @@
         <v>410</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="M4" s="199" t="s">
-        <v>472</v>
+        <v>468</v>
+      </c>
+      <c r="M4" s="192" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -9169,13 +9198,13 @@
         <v>411</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="M5" s="199" t="s">
-        <v>475</v>
+        <v>471</v>
+      </c>
+      <c r="M5" s="192" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -9185,7 +9214,7 @@
       <c r="B6" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C6" s="198">
+      <c r="C6" s="191">
         <v>9662496752</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -9210,13 +9239,13 @@
         <v>412</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="M6" s="199" t="s">
-        <v>478</v>
+        <v>474</v>
+      </c>
+      <c r="M6" s="192" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -9251,13 +9280,13 @@
         <v>411</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="M7" s="199" t="s">
-        <v>481</v>
+        <v>477</v>
+      </c>
+      <c r="M7" s="192" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -9292,13 +9321,13 @@
         <v>413</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="M8" s="199" t="s">
-        <v>484</v>
+        <v>480</v>
+      </c>
+      <c r="M8" s="192" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -9333,13 +9362,13 @@
         <v>411</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="M9" s="199" t="s">
-        <v>487</v>
+        <v>483</v>
+      </c>
+      <c r="M9" s="192" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -9374,13 +9403,13 @@
         <v>414</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="M10" s="199" t="s">
-        <v>466</v>
+        <v>489</v>
+      </c>
+      <c r="M10" s="192" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -9411,17 +9440,17 @@
       <c r="I11" s="177">
         <v>0.48958333333333331</v>
       </c>
-      <c r="J11" s="193" t="s">
+      <c r="J11" s="196" t="s">
         <v>415</v>
       </c>
-      <c r="K11" s="193" t="s">
-        <v>467</v>
-      </c>
-      <c r="L11" s="193" t="s">
-        <v>468</v>
-      </c>
-      <c r="M11" s="193" t="s">
-        <v>469</v>
+      <c r="K11" s="196" t="s">
+        <v>464</v>
+      </c>
+      <c r="L11" s="196" t="s">
+        <v>465</v>
+      </c>
+      <c r="M11" s="196" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -9452,10 +9481,10 @@
       <c r="I12" s="173">
         <v>0.48958333333333331</v>
       </c>
-      <c r="J12" s="193"/>
-      <c r="K12" s="193"/>
-      <c r="L12" s="193"/>
-      <c r="M12" s="193"/>
+      <c r="J12" s="196"/>
+      <c r="K12" s="196"/>
+      <c r="L12" s="196"/>
+      <c r="M12" s="196"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
@@ -9489,13 +9518,13 @@
         <v>416</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="M13" s="199" t="s">
-        <v>472</v>
+        <v>468</v>
+      </c>
+      <c r="M13" s="192" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -9526,17 +9555,17 @@
       <c r="I14" s="177">
         <v>0.54166666666666696</v>
       </c>
-      <c r="J14" s="193" t="s">
+      <c r="J14" s="196" t="s">
         <v>417</v>
       </c>
-      <c r="K14" s="193" t="s">
-        <v>476</v>
-      </c>
-      <c r="L14" s="193" t="s">
-        <v>477</v>
-      </c>
-      <c r="M14" s="200" t="s">
-        <v>478</v>
+      <c r="K14" s="196" t="s">
+        <v>473</v>
+      </c>
+      <c r="L14" s="196" t="s">
+        <v>474</v>
+      </c>
+      <c r="M14" s="197" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -9567,10 +9596,10 @@
       <c r="I15" s="173">
         <v>0.54166666666666696</v>
       </c>
-      <c r="J15" s="193"/>
-      <c r="K15" s="193"/>
-      <c r="L15" s="193"/>
-      <c r="M15" s="200"/>
+      <c r="J15" s="196"/>
+      <c r="K15" s="196"/>
+      <c r="L15" s="196"/>
+      <c r="M15" s="197"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
@@ -9579,7 +9608,7 @@
       <c r="B16" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C16" s="198">
+      <c r="C16" s="191">
         <v>9820332608</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -9604,13 +9633,13 @@
         <v>419</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="M16" s="199" t="s">
-        <v>484</v>
+        <v>480</v>
+      </c>
+      <c r="M16" s="192" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -9645,13 +9674,13 @@
         <v>411</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="M17" s="199" t="s">
-        <v>490</v>
+        <v>486</v>
+      </c>
+      <c r="M17" s="192" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
@@ -9685,14 +9714,14 @@
       <c r="J18" s="86" t="s">
         <v>418</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="M18" s="199" t="s">
-        <v>493</v>
+      <c r="K18" s="66" t="s">
+        <v>488</v>
+      </c>
+      <c r="L18" s="66" t="s">
+        <v>489</v>
+      </c>
+      <c r="M18" s="204" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -9723,17 +9752,17 @@
       <c r="I19" s="183">
         <v>0.54166666666666663</v>
       </c>
-      <c r="J19" s="193" t="s">
+      <c r="J19" s="196" t="s">
         <v>420</v>
       </c>
-      <c r="K19" s="193" t="s">
-        <v>494</v>
-      </c>
-      <c r="L19" s="193" t="s">
-        <v>495</v>
-      </c>
-      <c r="M19" s="193" t="s">
-        <v>496</v>
+      <c r="K19" s="196" t="s">
+        <v>491</v>
+      </c>
+      <c r="L19" s="196" t="s">
+        <v>492</v>
+      </c>
+      <c r="M19" s="196" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -9758,10 +9787,10 @@
       <c r="G20" s="12"/>
       <c r="H20" s="46"/>
       <c r="I20" s="183"/>
-      <c r="J20" s="193"/>
-      <c r="K20" s="193"/>
-      <c r="L20" s="193"/>
-      <c r="M20" s="193"/>
+      <c r="J20" s="196"/>
+      <c r="K20" s="196"/>
+      <c r="L20" s="196"/>
+      <c r="M20" s="196"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
@@ -9795,13 +9824,13 @@
         <v>421</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="M21" s="199" t="s">
-        <v>499</v>
+        <v>495</v>
+      </c>
+      <c r="M21" s="192" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -9836,13 +9865,13 @@
         <v>422</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="M22" s="199" t="s">
-        <v>502</v>
+        <v>498</v>
+      </c>
+      <c r="M22" s="192" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -9877,13 +9906,13 @@
         <v>411</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="M23" s="199" t="s">
-        <v>505</v>
+        <v>501</v>
+      </c>
+      <c r="M23" s="192" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
@@ -9918,13 +9947,13 @@
         <v>424</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="M24" s="199" t="s">
-        <v>508</v>
+        <v>504</v>
+      </c>
+      <c r="M24" s="192" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -9959,13 +9988,13 @@
         <v>411</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="M25" s="199" t="s">
-        <v>511</v>
+        <v>507</v>
+      </c>
+      <c r="M25" s="192" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -9996,17 +10025,17 @@
       <c r="I26" s="173">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J26" s="191" t="s">
+      <c r="J26" s="194" t="s">
         <v>411</v>
       </c>
-      <c r="K26" s="191" t="s">
-        <v>512</v>
-      </c>
-      <c r="L26" s="191" t="s">
-        <v>513</v>
-      </c>
-      <c r="M26" s="191" t="s">
-        <v>514</v>
+      <c r="K26" s="194" t="s">
+        <v>509</v>
+      </c>
+      <c r="L26" s="194" t="s">
+        <v>510</v>
+      </c>
+      <c r="M26" s="194" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -10037,10 +10066,10 @@
       <c r="I27" s="173">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J27" s="191"/>
-      <c r="K27" s="191"/>
-      <c r="L27" s="191"/>
-      <c r="M27" s="191"/>
+      <c r="J27" s="194"/>
+      <c r="K27" s="194"/>
+      <c r="L27" s="194"/>
+      <c r="M27" s="194"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
@@ -10070,10 +10099,10 @@
       <c r="I28" s="173">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J28" s="191"/>
-      <c r="K28" s="191"/>
-      <c r="L28" s="191"/>
-      <c r="M28" s="191"/>
+      <c r="J28" s="194"/>
+      <c r="K28" s="194"/>
+      <c r="L28" s="194"/>
+      <c r="M28" s="194"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
@@ -10103,17 +10132,17 @@
       <c r="I29" s="173">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J29" s="191" t="s">
+      <c r="J29" s="194" t="s">
         <v>411</v>
       </c>
-      <c r="K29" s="191" t="s">
-        <v>515</v>
-      </c>
-      <c r="L29" s="191" t="s">
-        <v>516</v>
-      </c>
-      <c r="M29" s="191" t="s">
-        <v>517</v>
+      <c r="K29" s="203" t="s">
+        <v>512</v>
+      </c>
+      <c r="L29" s="203" t="s">
+        <v>513</v>
+      </c>
+      <c r="M29" s="203" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -10144,10 +10173,10 @@
       <c r="I30" s="173">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J30" s="191"/>
-      <c r="K30" s="191"/>
-      <c r="L30" s="191"/>
-      <c r="M30" s="191"/>
+      <c r="J30" s="194"/>
+      <c r="K30" s="203"/>
+      <c r="L30" s="203"/>
+      <c r="M30" s="203"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
@@ -10177,10 +10206,10 @@
       <c r="I31" s="173">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J31" s="191"/>
-      <c r="K31" s="191"/>
-      <c r="L31" s="191"/>
-      <c r="M31" s="191"/>
+      <c r="J31" s="194"/>
+      <c r="K31" s="203"/>
+      <c r="L31" s="203"/>
+      <c r="M31" s="203"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
@@ -10210,17 +10239,17 @@
       <c r="I32" s="178">
         <v>0.72569444444444453</v>
       </c>
-      <c r="J32" s="191" t="s">
+      <c r="J32" s="194" t="s">
         <v>411</v>
       </c>
-      <c r="K32" s="191" t="s">
-        <v>518</v>
-      </c>
-      <c r="L32" s="191" t="s">
-        <v>519</v>
-      </c>
-      <c r="M32" s="191" t="s">
-        <v>520</v>
+      <c r="K32" s="194" t="s">
+        <v>515</v>
+      </c>
+      <c r="L32" s="194" t="s">
+        <v>516</v>
+      </c>
+      <c r="M32" s="194" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -10251,10 +10280,10 @@
       <c r="I33" s="186" t="s">
         <v>295</v>
       </c>
-      <c r="J33" s="191"/>
-      <c r="K33" s="191"/>
-      <c r="L33" s="191"/>
-      <c r="M33" s="191"/>
+      <c r="J33" s="194"/>
+      <c r="K33" s="194"/>
+      <c r="L33" s="194"/>
+      <c r="M33" s="194"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
@@ -10288,13 +10317,13 @@
         <v>425</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="M34" s="199" t="s">
-        <v>469</v>
+        <v>465</v>
+      </c>
+      <c r="M34" s="192" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -10329,10 +10358,10 @@
         <v>411</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M35" s="6">
         <v>9789857479</v>
@@ -10366,17 +10395,17 @@
       <c r="I36" s="177">
         <v>0.69097222222222221</v>
       </c>
-      <c r="J36" s="191" t="s">
+      <c r="J36" s="194" t="s">
         <v>426</v>
       </c>
-      <c r="K36" s="191" t="s">
-        <v>523</v>
-      </c>
-      <c r="L36" s="191" t="s">
-        <v>524</v>
-      </c>
-      <c r="M36" s="201" t="s">
-        <v>525</v>
+      <c r="K36" s="194" t="s">
+        <v>520</v>
+      </c>
+      <c r="L36" s="194" t="s">
+        <v>521</v>
+      </c>
+      <c r="M36" s="198" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -10407,10 +10436,10 @@
       <c r="I37" s="177">
         <v>0.75</v>
       </c>
-      <c r="J37" s="191"/>
-      <c r="K37" s="191"/>
-      <c r="L37" s="191"/>
-      <c r="M37" s="201"/>
+      <c r="J37" s="194"/>
+      <c r="K37" s="194"/>
+      <c r="L37" s="194"/>
+      <c r="M37" s="198"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="15">
@@ -10440,18 +10469,12 @@
       <c r="I38" s="188">
         <v>18</v>
       </c>
-      <c r="J38" s="191" t="s">
-        <v>411</v>
-      </c>
-      <c r="K38" s="191" t="s">
-        <v>526</v>
-      </c>
-      <c r="L38" s="191" t="s">
-        <v>527</v>
-      </c>
-      <c r="M38" s="202" t="s">
-        <v>528</v>
-      </c>
+      <c r="J38" s="207" t="s">
+        <v>451</v>
+      </c>
+      <c r="K38" s="207"/>
+      <c r="L38" s="207"/>
+      <c r="M38" s="208"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="15">
@@ -10481,10 +10504,18 @@
       <c r="I39" s="189">
         <v>18</v>
       </c>
-      <c r="J39" s="191"/>
-      <c r="K39" s="191"/>
-      <c r="L39" s="191"/>
-      <c r="M39" s="191"/>
+      <c r="J39" s="205" t="s">
+        <v>411</v>
+      </c>
+      <c r="K39" s="205" t="s">
+        <v>523</v>
+      </c>
+      <c r="L39" s="205" t="s">
+        <v>524</v>
+      </c>
+      <c r="M39" s="205" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
@@ -10514,10 +10545,10 @@
       <c r="I40" s="189">
         <v>18</v>
       </c>
-      <c r="J40" s="191"/>
-      <c r="K40" s="191"/>
-      <c r="L40" s="191"/>
-      <c r="M40" s="191"/>
+      <c r="J40" s="206"/>
+      <c r="K40" s="206"/>
+      <c r="L40" s="206"/>
+      <c r="M40" s="206"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="15">
@@ -10551,13 +10582,13 @@
         <v>427</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="M41" s="199" t="s">
-        <v>531</v>
+        <v>527</v>
+      </c>
+      <c r="M41" s="192" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
@@ -10588,17 +10619,17 @@
       <c r="I42" s="173">
         <v>0.81944444444444398</v>
       </c>
-      <c r="J42" s="191" t="s">
+      <c r="J42" s="194" t="s">
         <v>428</v>
       </c>
-      <c r="K42" s="191" t="s">
-        <v>532</v>
-      </c>
-      <c r="L42" s="191" t="s">
-        <v>533</v>
-      </c>
-      <c r="M42" s="191" t="s">
-        <v>534</v>
+      <c r="K42" s="194" t="s">
+        <v>529</v>
+      </c>
+      <c r="L42" s="194" t="s">
+        <v>530</v>
+      </c>
+      <c r="M42" s="194" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
@@ -10629,10 +10660,10 @@
       <c r="I43" s="173">
         <v>0.81944444444444398</v>
       </c>
-      <c r="J43" s="191"/>
-      <c r="K43" s="191"/>
-      <c r="L43" s="191"/>
-      <c r="M43" s="191"/>
+      <c r="J43" s="194"/>
+      <c r="K43" s="194"/>
+      <c r="L43" s="194"/>
+      <c r="M43" s="194"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="15">
@@ -10662,17 +10693,17 @@
       <c r="I44" s="173">
         <v>0.40277777777777773</v>
       </c>
-      <c r="J44" s="191" t="s">
+      <c r="J44" s="194" t="s">
         <v>429</v>
       </c>
-      <c r="K44" s="191" t="s">
-        <v>535</v>
-      </c>
-      <c r="L44" s="191" t="s">
-        <v>536</v>
-      </c>
-      <c r="M44" s="191" t="s">
-        <v>537</v>
+      <c r="K44" s="194" t="s">
+        <v>532</v>
+      </c>
+      <c r="L44" s="194" t="s">
+        <v>533</v>
+      </c>
+      <c r="M44" s="194" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
@@ -10703,10 +10734,10 @@
       <c r="I45" s="173">
         <v>0.84375</v>
       </c>
-      <c r="J45" s="191"/>
-      <c r="K45" s="191"/>
-      <c r="L45" s="191"/>
-      <c r="M45" s="191"/>
+      <c r="J45" s="194"/>
+      <c r="K45" s="194"/>
+      <c r="L45" s="194"/>
+      <c r="M45" s="194"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="15">
@@ -10736,17 +10767,17 @@
       <c r="I46" s="177">
         <v>0.29166666666666669</v>
       </c>
-      <c r="J46" s="191" t="s">
+      <c r="J46" s="194" t="s">
         <v>430</v>
       </c>
-      <c r="K46" s="191" t="s">
-        <v>538</v>
-      </c>
-      <c r="L46" s="191" t="s">
-        <v>539</v>
-      </c>
-      <c r="M46" s="202" t="s">
-        <v>540</v>
+      <c r="K46" s="194" t="s">
+        <v>535</v>
+      </c>
+      <c r="L46" s="194" t="s">
+        <v>536</v>
+      </c>
+      <c r="M46" s="199" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -10777,10 +10808,10 @@
       <c r="I47" s="177">
         <v>0.69097222222222221</v>
       </c>
-      <c r="J47" s="191"/>
-      <c r="K47" s="191"/>
-      <c r="L47" s="191"/>
-      <c r="M47" s="202"/>
+      <c r="J47" s="194"/>
+      <c r="K47" s="194"/>
+      <c r="L47" s="194"/>
+      <c r="M47" s="199"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="15">
@@ -10810,17 +10841,17 @@
       <c r="I48" s="186">
         <v>17.55</v>
       </c>
-      <c r="J48" s="191" t="s">
+      <c r="J48" s="194" t="s">
         <v>411</v>
       </c>
-      <c r="K48" s="191" t="s">
-        <v>541</v>
-      </c>
-      <c r="L48" s="191" t="s">
-        <v>542</v>
-      </c>
-      <c r="M48" s="191" t="s">
-        <v>517</v>
+      <c r="K48" s="203" t="s">
+        <v>538</v>
+      </c>
+      <c r="L48" s="203" t="s">
+        <v>539</v>
+      </c>
+      <c r="M48" s="203" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
@@ -10851,10 +10882,10 @@
       <c r="I49" s="186">
         <v>17.55</v>
       </c>
-      <c r="J49" s="191"/>
-      <c r="K49" s="191"/>
-      <c r="L49" s="191"/>
-      <c r="M49" s="191"/>
+      <c r="J49" s="194"/>
+      <c r="K49" s="203"/>
+      <c r="L49" s="203"/>
+      <c r="M49" s="203"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="15">
@@ -10884,10 +10915,10 @@
       <c r="I50" s="186">
         <v>17.55</v>
       </c>
-      <c r="J50" s="191"/>
-      <c r="K50" s="191"/>
-      <c r="L50" s="191"/>
-      <c r="M50" s="191"/>
+      <c r="J50" s="194"/>
+      <c r="K50" s="203"/>
+      <c r="L50" s="203"/>
+      <c r="M50" s="203"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="15">
@@ -10917,17 +10948,17 @@
       <c r="I51" s="186">
         <v>17.55</v>
       </c>
-      <c r="J51" s="191" t="s">
+      <c r="J51" s="194" t="s">
         <v>431</v>
       </c>
-      <c r="K51" s="191" t="s">
-        <v>543</v>
-      </c>
-      <c r="L51" s="191" t="s">
-        <v>544</v>
-      </c>
-      <c r="M51" s="191" t="s">
-        <v>545</v>
+      <c r="K51" s="194" t="s">
+        <v>540</v>
+      </c>
+      <c r="L51" s="194" t="s">
+        <v>541</v>
+      </c>
+      <c r="M51" s="194" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
@@ -10958,10 +10989,10 @@
       <c r="I52" s="186">
         <v>17.55</v>
       </c>
-      <c r="J52" s="191"/>
-      <c r="K52" s="191"/>
-      <c r="L52" s="191"/>
-      <c r="M52" s="191"/>
+      <c r="J52" s="194"/>
+      <c r="K52" s="194"/>
+      <c r="L52" s="194"/>
+      <c r="M52" s="194"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="15">
@@ -10995,13 +11026,13 @@
         <v>432</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="M53" s="199" t="s">
-        <v>493</v>
+        <v>489</v>
+      </c>
+      <c r="M53" s="192" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
@@ -11036,13 +11067,13 @@
         <v>434</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="M54" s="199" t="s">
-        <v>548</v>
+        <v>544</v>
+      </c>
+      <c r="M54" s="192" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
@@ -11052,7 +11083,7 @@
       <c r="B55" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="C55" s="197">
+      <c r="C55" s="190">
         <v>7276230239</v>
       </c>
       <c r="D55" s="14" t="s">
@@ -11077,13 +11108,13 @@
         <v>435</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="M55" s="199" t="s">
-        <v>551</v>
+        <v>547</v>
+      </c>
+      <c r="M55" s="192" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
@@ -11118,13 +11149,13 @@
         <v>411</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="M56" s="199" t="s">
-        <v>554</v>
+        <v>550</v>
+      </c>
+      <c r="M56" s="192" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
@@ -11155,17 +11186,17 @@
       <c r="I57" s="178">
         <v>0.85416666666666663</v>
       </c>
-      <c r="J57" s="192" t="s">
+      <c r="J57" s="195" t="s">
         <v>411</v>
       </c>
-      <c r="K57" s="191" t="s">
-        <v>555</v>
-      </c>
-      <c r="L57" s="191" t="s">
-        <v>556</v>
-      </c>
-      <c r="M57" s="202" t="s">
-        <v>557</v>
+      <c r="K57" s="194" t="s">
+        <v>552</v>
+      </c>
+      <c r="L57" s="194" t="s">
+        <v>553</v>
+      </c>
+      <c r="M57" s="199" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
@@ -11196,10 +11227,10 @@
       <c r="I58" s="178">
         <v>0.85416666666666663</v>
       </c>
-      <c r="J58" s="192"/>
-      <c r="K58" s="191"/>
-      <c r="L58" s="191"/>
-      <c r="M58" s="191"/>
+      <c r="J58" s="195"/>
+      <c r="K58" s="194"/>
+      <c r="L58" s="194"/>
+      <c r="M58" s="194"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="15">
@@ -11229,17 +11260,17 @@
       <c r="I59" s="177">
         <v>0.81944444444444398</v>
       </c>
-      <c r="J59" s="191" t="s">
+      <c r="J59" s="194" t="s">
         <v>433</v>
       </c>
-      <c r="K59" s="193" t="s">
-        <v>494</v>
-      </c>
-      <c r="L59" s="193" t="s">
-        <v>495</v>
-      </c>
-      <c r="M59" s="193" t="s">
-        <v>496</v>
+      <c r="K59" s="196" t="s">
+        <v>491</v>
+      </c>
+      <c r="L59" s="196" t="s">
+        <v>492</v>
+      </c>
+      <c r="M59" s="196" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
@@ -11270,10 +11301,10 @@
       <c r="I60" s="173">
         <v>0.81944444444444398</v>
       </c>
-      <c r="J60" s="191"/>
-      <c r="K60" s="193"/>
-      <c r="L60" s="193"/>
-      <c r="M60" s="193"/>
+      <c r="J60" s="194"/>
+      <c r="K60" s="196"/>
+      <c r="L60" s="196"/>
+      <c r="M60" s="196"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B61" s="80" t="s">
@@ -11299,49 +11330,49 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J64" s="85" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="M64" s="199" t="s">
-        <v>559</v>
+        <v>557</v>
+      </c>
+      <c r="M64" s="192" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="65" spans="11:13" x14ac:dyDescent="0.35">
       <c r="K65" s="6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="M65" s="199" t="s">
-        <v>562</v>
+        <v>560</v>
+      </c>
+      <c r="M65" s="192" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="66" spans="11:13" x14ac:dyDescent="0.35">
       <c r="K66" s="6" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="M66" s="199" t="s">
-        <v>540</v>
+        <v>536</v>
+      </c>
+      <c r="M66" s="192" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="67" spans="11:13" x14ac:dyDescent="0.35">
-      <c r="K67" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="L67" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="M67" s="199" t="s">
-        <v>566</v>
+      <c r="K67" s="66" t="s">
+        <v>561</v>
+      </c>
+      <c r="L67" s="66" t="s">
+        <v>562</v>
+      </c>
+      <c r="M67" s="204" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -11349,57 +11380,6 @@
     <sortCondition ref="F1"/>
   </sortState>
   <mergeCells count="60">
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J48:J50"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="M26:M28"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="K48:K50"/>
-    <mergeCell ref="L48:L50"/>
-    <mergeCell ref="M48:M50"/>
     <mergeCell ref="K59:K60"/>
     <mergeCell ref="L59:L60"/>
     <mergeCell ref="M59:M60"/>
@@ -11409,6 +11389,57 @@
     <mergeCell ref="K57:K58"/>
     <mergeCell ref="L57:L58"/>
     <mergeCell ref="M57:M58"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="K48:K50"/>
+    <mergeCell ref="L48:L50"/>
+    <mergeCell ref="M48:M50"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="M26:M28"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="J39:J40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11531,12 +11562,12 @@
       <c r="H3" s="135">
         <v>0.75</v>
       </c>
-      <c r="I3" s="195" t="s">
+      <c r="I3" s="200" t="s">
         <v>408</v>
       </c>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="194"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="201"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="121">
@@ -11563,10 +11594,10 @@
       <c r="H4" s="137">
         <v>0.75</v>
       </c>
-      <c r="I4" s="195"/>
-      <c r="J4" s="194"/>
-      <c r="K4" s="194"/>
-      <c r="L4" s="194"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="201"/>
+      <c r="L4" s="201"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="121">
@@ -11625,12 +11656,12 @@
       <c r="H6" s="135">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I6" s="195" t="s">
+      <c r="I6" s="200" t="s">
         <v>410</v>
       </c>
-      <c r="J6" s="194"/>
-      <c r="K6" s="194"/>
-      <c r="L6" s="194"/>
+      <c r="J6" s="201"/>
+      <c r="K6" s="201"/>
+      <c r="L6" s="201"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="121">
@@ -11657,10 +11688,10 @@
       <c r="H7" s="135">
         <v>0.85416666666666663</v>
       </c>
-      <c r="I7" s="195"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="194"/>
-      <c r="L7" s="194"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="201"/>
+      <c r="K7" s="201"/>
+      <c r="L7" s="201"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="121">
@@ -11847,12 +11878,12 @@
       <c r="H13" s="148">
         <v>0.72569444444444453</v>
       </c>
-      <c r="I13" s="195" t="s">
+      <c r="I13" s="200" t="s">
         <v>423</v>
       </c>
-      <c r="J13" s="194"/>
-      <c r="K13" s="194"/>
-      <c r="L13" s="194"/>
+      <c r="J13" s="201"/>
+      <c r="K13" s="201"/>
+      <c r="L13" s="201"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="121">
@@ -11879,10 +11910,10 @@
       <c r="H14" s="149">
         <v>0.87847222222222221</v>
       </c>
-      <c r="I14" s="195"/>
-      <c r="J14" s="194"/>
-      <c r="K14" s="194"/>
-      <c r="L14" s="194"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="201"/>
+      <c r="K14" s="201"/>
+      <c r="L14" s="201"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="121">
@@ -11941,12 +11972,12 @@
       <c r="H16" s="135">
         <v>0.78125</v>
       </c>
-      <c r="I16" s="195" t="s">
+      <c r="I16" s="200" t="s">
         <v>423</v>
       </c>
-      <c r="J16" s="194"/>
-      <c r="K16" s="194"/>
-      <c r="L16" s="194"/>
+      <c r="J16" s="201"/>
+      <c r="K16" s="201"/>
+      <c r="L16" s="201"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="121">
@@ -11973,10 +12004,10 @@
       <c r="H17" s="135">
         <v>0.69444444444444453</v>
       </c>
-      <c r="I17" s="195"/>
-      <c r="J17" s="194"/>
-      <c r="K17" s="194"/>
-      <c r="L17" s="194"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="201"/>
+      <c r="K17" s="201"/>
+      <c r="L17" s="201"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="121">
@@ -12003,10 +12034,10 @@
       <c r="H18" s="135">
         <v>0.76041666666666663</v>
       </c>
-      <c r="I18" s="195"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="194"/>
-      <c r="L18" s="194"/>
+      <c r="I18" s="200"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="201"/>
+      <c r="L18" s="201"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="121">
@@ -12065,12 +12096,12 @@
       <c r="H20" s="151">
         <v>0.76041666666666663</v>
       </c>
-      <c r="I20" s="195" t="s">
+      <c r="I20" s="200" t="s">
         <v>423</v>
       </c>
-      <c r="J20" s="194"/>
-      <c r="K20" s="194"/>
-      <c r="L20" s="194"/>
+      <c r="J20" s="201"/>
+      <c r="K20" s="201"/>
+      <c r="L20" s="201"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="121">
@@ -12097,10 +12128,10 @@
       <c r="H21" s="135">
         <v>0.85416666666666663</v>
       </c>
-      <c r="I21" s="195"/>
-      <c r="J21" s="194"/>
-      <c r="K21" s="194"/>
-      <c r="L21" s="194"/>
+      <c r="I21" s="200"/>
+      <c r="J21" s="201"/>
+      <c r="K21" s="201"/>
+      <c r="L21" s="201"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="121">
@@ -12127,10 +12158,10 @@
       <c r="H22" s="135">
         <v>0.84375</v>
       </c>
-      <c r="I22" s="195"/>
-      <c r="J22" s="194"/>
-      <c r="K22" s="194"/>
-      <c r="L22" s="194"/>
+      <c r="I22" s="200"/>
+      <c r="J22" s="201"/>
+      <c r="K22" s="201"/>
+      <c r="L22" s="201"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="121">
@@ -12189,12 +12220,12 @@
       <c r="H24" s="152">
         <v>21.15</v>
       </c>
-      <c r="I24" s="195" t="s">
+      <c r="I24" s="200" t="s">
         <v>423</v>
       </c>
-      <c r="J24" s="194"/>
-      <c r="K24" s="194"/>
-      <c r="L24" s="194"/>
+      <c r="J24" s="201"/>
+      <c r="K24" s="201"/>
+      <c r="L24" s="201"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="121">
@@ -12221,10 +12252,10 @@
       <c r="H25" s="152">
         <v>18</v>
       </c>
-      <c r="I25" s="195"/>
-      <c r="J25" s="194"/>
-      <c r="K25" s="194"/>
-      <c r="L25" s="194"/>
+      <c r="I25" s="200"/>
+      <c r="J25" s="201"/>
+      <c r="K25" s="201"/>
+      <c r="L25" s="201"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="121">
@@ -12251,10 +12282,10 @@
       <c r="H26" s="152">
         <v>18</v>
       </c>
-      <c r="I26" s="195"/>
-      <c r="J26" s="194"/>
-      <c r="K26" s="194"/>
-      <c r="L26" s="194"/>
+      <c r="I26" s="200"/>
+      <c r="J26" s="201"/>
+      <c r="K26" s="201"/>
+      <c r="L26" s="201"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="121">
@@ -12281,12 +12312,12 @@
       <c r="H27" s="152">
         <v>21.15</v>
       </c>
-      <c r="I27" s="195" t="s">
+      <c r="I27" s="200" t="s">
         <v>423</v>
       </c>
-      <c r="J27" s="194"/>
-      <c r="K27" s="194"/>
-      <c r="L27" s="194"/>
+      <c r="J27" s="201"/>
+      <c r="K27" s="201"/>
+      <c r="L27" s="201"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="121">
@@ -12313,10 +12344,10 @@
       <c r="H28" s="152">
         <v>18</v>
       </c>
-      <c r="I28" s="195"/>
-      <c r="J28" s="194"/>
-      <c r="K28" s="194"/>
-      <c r="L28" s="194"/>
+      <c r="I28" s="200"/>
+      <c r="J28" s="201"/>
+      <c r="K28" s="201"/>
+      <c r="L28" s="201"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="121">
@@ -12343,10 +12374,10 @@
       <c r="H29" s="136">
         <v>21.15</v>
       </c>
-      <c r="I29" s="195"/>
-      <c r="J29" s="194"/>
-      <c r="K29" s="194"/>
-      <c r="L29" s="194"/>
+      <c r="I29" s="200"/>
+      <c r="J29" s="201"/>
+      <c r="K29" s="201"/>
+      <c r="L29" s="201"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="121">
@@ -12405,12 +12436,12 @@
       <c r="H31" s="118" t="s">
         <v>295</v>
       </c>
-      <c r="I31" s="195" t="s">
+      <c r="I31" s="200" t="s">
         <v>423</v>
       </c>
-      <c r="J31" s="194"/>
-      <c r="K31" s="194"/>
-      <c r="L31" s="194"/>
+      <c r="J31" s="201"/>
+      <c r="K31" s="201"/>
+      <c r="L31" s="201"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="121">
@@ -12437,10 +12468,10 @@
       <c r="H32" s="118" t="s">
         <v>295</v>
       </c>
-      <c r="I32" s="195"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="194"/>
-      <c r="L32" s="194"/>
+      <c r="I32" s="200"/>
+      <c r="J32" s="201"/>
+      <c r="K32" s="201"/>
+      <c r="L32" s="201"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="121">
@@ -12467,10 +12498,10 @@
       <c r="H33" s="118" t="s">
         <v>295</v>
       </c>
-      <c r="I33" s="195"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="194"/>
-      <c r="L33" s="194"/>
+      <c r="I33" s="200"/>
+      <c r="J33" s="201"/>
+      <c r="K33" s="201"/>
+      <c r="L33" s="201"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="121">
@@ -12527,12 +12558,12 @@
       <c r="H35" s="158">
         <v>0.72916666666666663</v>
       </c>
-      <c r="I35" s="195" t="s">
+      <c r="I35" s="200" t="s">
         <v>423</v>
       </c>
-      <c r="J35" s="194"/>
-      <c r="K35" s="194"/>
-      <c r="L35" s="194"/>
+      <c r="J35" s="201"/>
+      <c r="K35" s="201"/>
+      <c r="L35" s="201"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="121">
@@ -12559,10 +12590,10 @@
       <c r="H36" s="145">
         <v>0.69791666666666663</v>
       </c>
-      <c r="I36" s="195"/>
-      <c r="J36" s="194"/>
-      <c r="K36" s="194"/>
-      <c r="L36" s="194"/>
+      <c r="I36" s="200"/>
+      <c r="J36" s="201"/>
+      <c r="K36" s="201"/>
+      <c r="L36" s="201"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="121">
@@ -12589,10 +12620,10 @@
       <c r="H37" s="145" t="s">
         <v>257</v>
       </c>
-      <c r="I37" s="195"/>
-      <c r="J37" s="194"/>
-      <c r="K37" s="194"/>
-      <c r="L37" s="194"/>
+      <c r="I37" s="200"/>
+      <c r="J37" s="201"/>
+      <c r="K37" s="201"/>
+      <c r="L37" s="201"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="121">
@@ -12755,12 +12786,12 @@
       <c r="F43" s="121"/>
       <c r="G43" s="121"/>
       <c r="H43" s="121"/>
-      <c r="I43" s="194" t="s">
+      <c r="I43" s="201" t="s">
         <v>429</v>
       </c>
-      <c r="J43" s="194"/>
-      <c r="K43" s="194"/>
-      <c r="L43" s="194"/>
+      <c r="J43" s="201"/>
+      <c r="K43" s="201"/>
+      <c r="L43" s="201"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="121"/>
@@ -12777,56 +12808,56 @@
       <c r="F44" s="121"/>
       <c r="G44" s="121"/>
       <c r="H44" s="121"/>
-      <c r="I44" s="194"/>
-      <c r="J44" s="194"/>
-      <c r="K44" s="194"/>
-      <c r="L44" s="194"/>
+      <c r="I44" s="201"/>
+      <c r="J44" s="201"/>
+      <c r="K44" s="201"/>
+      <c r="L44" s="201"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H41">
     <sortCondition ref="E1"/>
   </sortState>
   <mergeCells count="40">
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="L16:L18"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="I43:I44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13316,12 +13347,12 @@
       <c r="G8" s="76">
         <v>0.48958333333333331</v>
       </c>
-      <c r="H8" s="196" t="s">
+      <c r="H8" s="202" t="s">
         <v>451</v>
       </c>
-      <c r="I8" s="196"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="196"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
@@ -13345,10 +13376,10 @@
       <c r="G9" s="74">
         <v>0.48958333333333331</v>
       </c>
-      <c r="H9" s="196"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="196"/>
-      <c r="K9" s="196"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="202"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
@@ -13430,12 +13461,12 @@
       <c r="G12" s="76">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H12" s="196" t="s">
+      <c r="H12" s="202" t="s">
         <v>423</v>
       </c>
-      <c r="I12" s="196"/>
-      <c r="J12" s="196"/>
-      <c r="K12" s="196"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="202"/>
+      <c r="K12" s="202"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
@@ -13459,10 +13490,10 @@
       <c r="G13" s="76">
         <v>0.54166666666666696</v>
       </c>
-      <c r="H13" s="196"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="196"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="202"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
@@ -13486,10 +13517,10 @@
       <c r="G14" s="74">
         <v>0.54166666666666696</v>
       </c>
-      <c r="H14" s="196"/>
-      <c r="I14" s="196"/>
-      <c r="J14" s="196"/>
-      <c r="K14" s="196"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="202"/>
+      <c r="K14" s="202"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
@@ -13571,12 +13602,12 @@
       <c r="G17" s="76">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H17" s="196" t="s">
+      <c r="H17" s="202" t="s">
         <v>451</v>
       </c>
-      <c r="I17" s="196"/>
-      <c r="J17" s="196"/>
-      <c r="K17" s="196"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="202"/>
+      <c r="K17" s="202"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
@@ -13600,10 +13631,10 @@
       <c r="G18" s="76">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H18" s="196"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="196"/>
-      <c r="K18" s="196"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="202"/>
+      <c r="K18" s="202"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
@@ -13656,12 +13687,12 @@
       <c r="G20" s="74">
         <v>0.69791666666666663</v>
       </c>
-      <c r="H20" s="196" t="s">
+      <c r="H20" s="202" t="s">
         <v>451</v>
       </c>
-      <c r="I20" s="196"/>
-      <c r="J20" s="196"/>
-      <c r="K20" s="196"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="202"/>
+      <c r="K20" s="202"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
@@ -13685,10 +13716,10 @@
       <c r="G21" s="74">
         <v>0.69791666666666663</v>
       </c>
-      <c r="H21" s="196"/>
-      <c r="I21" s="196"/>
-      <c r="J21" s="196"/>
-      <c r="K21" s="196"/>
+      <c r="H21" s="202"/>
+      <c r="I21" s="202"/>
+      <c r="J21" s="202"/>
+      <c r="K21" s="202"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
@@ -13741,12 +13772,12 @@
       <c r="G23" s="75">
         <v>0.72569444444444453</v>
       </c>
-      <c r="H23" s="196" t="s">
+      <c r="H23" s="202" t="s">
         <v>423</v>
       </c>
-      <c r="I23" s="196"/>
-      <c r="J23" s="196"/>
-      <c r="K23" s="196"/>
+      <c r="I23" s="202"/>
+      <c r="J23" s="202"/>
+      <c r="K23" s="202"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
@@ -13770,10 +13801,10 @@
       <c r="G24" s="75">
         <v>0.72569444444444453</v>
       </c>
-      <c r="H24" s="196"/>
-      <c r="I24" s="196"/>
-      <c r="J24" s="196"/>
-      <c r="K24" s="196"/>
+      <c r="H24" s="202"/>
+      <c r="I24" s="202"/>
+      <c r="J24" s="202"/>
+      <c r="K24" s="202"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
@@ -13797,12 +13828,12 @@
       <c r="G25" s="75">
         <v>0.72569444444444453</v>
       </c>
-      <c r="H25" s="196" t="s">
+      <c r="H25" s="202" t="s">
         <v>423</v>
       </c>
-      <c r="I25" s="196"/>
-      <c r="J25" s="196"/>
-      <c r="K25" s="196"/>
+      <c r="I25" s="202"/>
+      <c r="J25" s="202"/>
+      <c r="K25" s="202"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
@@ -13826,10 +13857,10 @@
       <c r="G26" s="75">
         <v>0.72569444444444453</v>
       </c>
-      <c r="H26" s="196"/>
-      <c r="I26" s="196"/>
-      <c r="J26" s="196"/>
-      <c r="K26" s="196"/>
+      <c r="H26" s="202"/>
+      <c r="I26" s="202"/>
+      <c r="J26" s="202"/>
+      <c r="K26" s="202"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
@@ -13853,10 +13884,10 @@
       <c r="G27" s="75">
         <v>0.72569444444444453</v>
       </c>
-      <c r="H27" s="196"/>
-      <c r="I27" s="196"/>
-      <c r="J27" s="196"/>
-      <c r="K27" s="196"/>
+      <c r="H27" s="202"/>
+      <c r="I27" s="202"/>
+      <c r="J27" s="202"/>
+      <c r="K27" s="202"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
@@ -13880,12 +13911,12 @@
       <c r="G28" s="74">
         <v>0.72916666666666663</v>
       </c>
-      <c r="H28" s="196" t="s">
+      <c r="H28" s="202" t="s">
         <v>451</v>
       </c>
-      <c r="I28" s="196"/>
-      <c r="J28" s="196"/>
-      <c r="K28" s="196"/>
+      <c r="I28" s="202"/>
+      <c r="J28" s="202"/>
+      <c r="K28" s="202"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
@@ -13909,10 +13940,10 @@
       <c r="G29" s="91">
         <v>0.72916666666666663</v>
       </c>
-      <c r="H29" s="196"/>
-      <c r="I29" s="196"/>
-      <c r="J29" s="196"/>
-      <c r="K29" s="196"/>
+      <c r="H29" s="202"/>
+      <c r="I29" s="202"/>
+      <c r="J29" s="202"/>
+      <c r="K29" s="202"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
@@ -13965,12 +13996,12 @@
       <c r="G31" s="74">
         <v>0.74652777777777779</v>
       </c>
-      <c r="H31" s="196" t="s">
+      <c r="H31" s="202" t="s">
         <v>423</v>
       </c>
-      <c r="I31" s="196"/>
-      <c r="J31" s="196"/>
-      <c r="K31" s="196"/>
+      <c r="I31" s="202"/>
+      <c r="J31" s="202"/>
+      <c r="K31" s="202"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
@@ -13994,10 +14025,10 @@
       <c r="G32" s="74">
         <v>0.74652777777777779</v>
       </c>
-      <c r="H32" s="196"/>
-      <c r="I32" s="196"/>
-      <c r="J32" s="196"/>
-      <c r="K32" s="196"/>
+      <c r="H32" s="202"/>
+      <c r="I32" s="202"/>
+      <c r="J32" s="202"/>
+      <c r="K32" s="202"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
@@ -14021,10 +14052,10 @@
       <c r="G33" s="74">
         <v>0.74652777777777779</v>
       </c>
-      <c r="H33" s="196"/>
-      <c r="I33" s="196"/>
-      <c r="J33" s="196"/>
-      <c r="K33" s="196"/>
+      <c r="H33" s="202"/>
+      <c r="I33" s="202"/>
+      <c r="J33" s="202"/>
+      <c r="K33" s="202"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
@@ -14048,12 +14079,12 @@
       <c r="G34" s="74">
         <v>0.74652777777777779</v>
       </c>
-      <c r="H34" s="196" t="s">
+      <c r="H34" s="202" t="s">
         <v>451</v>
       </c>
-      <c r="I34" s="196"/>
-      <c r="J34" s="196"/>
-      <c r="K34" s="196"/>
+      <c r="I34" s="202"/>
+      <c r="J34" s="202"/>
+      <c r="K34" s="202"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="15">
@@ -14077,10 +14108,10 @@
       <c r="G35" s="74">
         <v>0.74652777777777779</v>
       </c>
-      <c r="H35" s="196"/>
-      <c r="I35" s="196"/>
-      <c r="J35" s="196"/>
-      <c r="K35" s="196"/>
+      <c r="H35" s="202"/>
+      <c r="I35" s="202"/>
+      <c r="J35" s="202"/>
+      <c r="K35" s="202"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
@@ -14133,12 +14164,12 @@
       <c r="G37" s="76">
         <v>0.75</v>
       </c>
-      <c r="H37" s="196" t="s">
+      <c r="H37" s="202" t="s">
         <v>423</v>
       </c>
-      <c r="I37" s="196"/>
-      <c r="J37" s="196"/>
-      <c r="K37" s="196"/>
+      <c r="I37" s="202"/>
+      <c r="J37" s="202"/>
+      <c r="K37" s="202"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="15">
@@ -14162,10 +14193,10 @@
       <c r="G38" s="76">
         <v>0.75</v>
       </c>
-      <c r="H38" s="196"/>
-      <c r="I38" s="196"/>
-      <c r="J38" s="196"/>
-      <c r="K38" s="196"/>
+      <c r="H38" s="202"/>
+      <c r="I38" s="202"/>
+      <c r="J38" s="202"/>
+      <c r="K38" s="202"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="15">
@@ -14189,12 +14220,12 @@
       <c r="G39" s="76">
         <v>0.75</v>
       </c>
-      <c r="H39" s="196" t="s">
+      <c r="H39" s="202" t="s">
         <v>451</v>
       </c>
-      <c r="I39" s="196"/>
-      <c r="J39" s="196"/>
-      <c r="K39" s="196"/>
+      <c r="I39" s="202"/>
+      <c r="J39" s="202"/>
+      <c r="K39" s="202"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
@@ -14218,10 +14249,10 @@
       <c r="G40" s="76">
         <v>0.75</v>
       </c>
-      <c r="H40" s="196"/>
-      <c r="I40" s="196"/>
-      <c r="J40" s="196"/>
-      <c r="K40" s="196"/>
+      <c r="H40" s="202"/>
+      <c r="I40" s="202"/>
+      <c r="J40" s="202"/>
+      <c r="K40" s="202"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="15">
@@ -14245,12 +14276,12 @@
       <c r="G41" s="76">
         <v>0.75</v>
       </c>
-      <c r="H41" s="196" t="s">
+      <c r="H41" s="202" t="s">
         <v>451</v>
       </c>
-      <c r="I41" s="196"/>
-      <c r="J41" s="196"/>
-      <c r="K41" s="196"/>
+      <c r="I41" s="202"/>
+      <c r="J41" s="202"/>
+      <c r="K41" s="202"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="15">
@@ -14274,10 +14305,10 @@
       <c r="G42" s="76">
         <v>0.75</v>
       </c>
-      <c r="H42" s="196"/>
-      <c r="I42" s="196"/>
-      <c r="J42" s="196"/>
-      <c r="K42" s="196"/>
+      <c r="H42" s="202"/>
+      <c r="I42" s="202"/>
+      <c r="J42" s="202"/>
+      <c r="K42" s="202"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="15">
@@ -14301,12 +14332,12 @@
       <c r="G43" s="75">
         <v>0.75</v>
       </c>
-      <c r="H43" s="196" t="s">
+      <c r="H43" s="202" t="s">
         <v>423</v>
       </c>
-      <c r="I43" s="196"/>
-      <c r="J43" s="196"/>
-      <c r="K43" s="196"/>
+      <c r="I43" s="202"/>
+      <c r="J43" s="202"/>
+      <c r="K43" s="202"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="15">
@@ -14330,10 +14361,10 @@
       <c r="G44" s="75">
         <v>0.75</v>
       </c>
-      <c r="H44" s="196"/>
-      <c r="I44" s="196"/>
-      <c r="J44" s="196"/>
-      <c r="K44" s="196"/>
+      <c r="H44" s="202"/>
+      <c r="I44" s="202"/>
+      <c r="J44" s="202"/>
+      <c r="K44" s="202"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="15">
@@ -14357,10 +14388,10 @@
       <c r="G45" s="75">
         <v>0.75</v>
       </c>
-      <c r="H45" s="196"/>
-      <c r="I45" s="196"/>
-      <c r="J45" s="196"/>
-      <c r="K45" s="196"/>
+      <c r="H45" s="202"/>
+      <c r="I45" s="202"/>
+      <c r="J45" s="202"/>
+      <c r="K45" s="202"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="15">
@@ -14384,12 +14415,12 @@
       <c r="G46" s="75">
         <v>0.75</v>
       </c>
-      <c r="H46" s="196" t="s">
+      <c r="H46" s="202" t="s">
         <v>451</v>
       </c>
-      <c r="I46" s="196"/>
-      <c r="J46" s="196"/>
-      <c r="K46" s="196"/>
+      <c r="I46" s="202"/>
+      <c r="J46" s="202"/>
+      <c r="K46" s="202"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="15">
@@ -14413,10 +14444,10 @@
       <c r="G47" s="75">
         <v>0.75</v>
       </c>
-      <c r="H47" s="196"/>
-      <c r="I47" s="196"/>
-      <c r="J47" s="196"/>
-      <c r="K47" s="196"/>
+      <c r="H47" s="202"/>
+      <c r="I47" s="202"/>
+      <c r="J47" s="202"/>
+      <c r="K47" s="202"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="15">
@@ -14440,12 +14471,12 @@
       <c r="G48" s="76">
         <v>0.75694444444444453</v>
       </c>
-      <c r="H48" s="196" t="s">
+      <c r="H48" s="202" t="s">
         <v>423</v>
       </c>
-      <c r="I48" s="196"/>
-      <c r="J48" s="196"/>
-      <c r="K48" s="196"/>
+      <c r="I48" s="202"/>
+      <c r="J48" s="202"/>
+      <c r="K48" s="202"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="15">
@@ -14469,10 +14500,10 @@
       <c r="G49" s="76">
         <v>0.75694444444444453</v>
       </c>
-      <c r="H49" s="196"/>
-      <c r="I49" s="196"/>
-      <c r="J49" s="196"/>
-      <c r="K49" s="196"/>
+      <c r="H49" s="202"/>
+      <c r="I49" s="202"/>
+      <c r="J49" s="202"/>
+      <c r="K49" s="202"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="15">
@@ -14496,12 +14527,12 @@
       <c r="G50" s="74">
         <v>0.76041666666666663</v>
       </c>
-      <c r="H50" s="196" t="s">
+      <c r="H50" s="202" t="s">
         <v>423</v>
       </c>
-      <c r="I50" s="196"/>
-      <c r="J50" s="196"/>
-      <c r="K50" s="196"/>
+      <c r="I50" s="202"/>
+      <c r="J50" s="202"/>
+      <c r="K50" s="202"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="15">
@@ -14525,10 +14556,10 @@
       <c r="G51" s="74">
         <v>0.76041666666666663</v>
       </c>
-      <c r="H51" s="196"/>
-      <c r="I51" s="196"/>
-      <c r="J51" s="196"/>
-      <c r="K51" s="196"/>
+      <c r="H51" s="202"/>
+      <c r="I51" s="202"/>
+      <c r="J51" s="202"/>
+      <c r="K51" s="202"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="15">
@@ -14552,10 +14583,10 @@
       <c r="G52" s="74">
         <v>0.76041666666666663</v>
       </c>
-      <c r="H52" s="196"/>
-      <c r="I52" s="196"/>
-      <c r="J52" s="196"/>
-      <c r="K52" s="196"/>
+      <c r="H52" s="202"/>
+      <c r="I52" s="202"/>
+      <c r="J52" s="202"/>
+      <c r="K52" s="202"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="15">
@@ -14579,12 +14610,12 @@
       <c r="G53" s="74">
         <v>0.76041666666666663</v>
       </c>
-      <c r="H53" s="196" t="s">
+      <c r="H53" s="202" t="s">
         <v>423</v>
       </c>
-      <c r="I53" s="196"/>
-      <c r="J53" s="196"/>
-      <c r="K53" s="196"/>
+      <c r="I53" s="202"/>
+      <c r="J53" s="202"/>
+      <c r="K53" s="202"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="15">
@@ -14608,10 +14639,10 @@
       <c r="G54" s="77">
         <v>0.76041666666666663</v>
       </c>
-      <c r="H54" s="196"/>
-      <c r="I54" s="196"/>
-      <c r="J54" s="196"/>
-      <c r="K54" s="196"/>
+      <c r="H54" s="202"/>
+      <c r="I54" s="202"/>
+      <c r="J54" s="202"/>
+      <c r="K54" s="202"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="15">
@@ -14635,10 +14666,10 @@
       <c r="G55" s="74">
         <v>0.76041666666666663</v>
       </c>
-      <c r="H55" s="196"/>
-      <c r="I55" s="196"/>
-      <c r="J55" s="196"/>
-      <c r="K55" s="196"/>
+      <c r="H55" s="202"/>
+      <c r="I55" s="202"/>
+      <c r="J55" s="202"/>
+      <c r="K55" s="202"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="15">
@@ -14662,12 +14693,12 @@
       <c r="G56" s="74">
         <v>0.76041666666666663</v>
       </c>
-      <c r="H56" s="196" t="s">
+      <c r="H56" s="202" t="s">
         <v>423</v>
       </c>
-      <c r="I56" s="196"/>
-      <c r="J56" s="196"/>
-      <c r="K56" s="196"/>
+      <c r="I56" s="202"/>
+      <c r="J56" s="202"/>
+      <c r="K56" s="202"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="15">
@@ -14691,10 +14722,10 @@
       <c r="G57" s="74">
         <v>0.76041666666666663</v>
       </c>
-      <c r="H57" s="196"/>
-      <c r="I57" s="196"/>
-      <c r="J57" s="196"/>
-      <c r="K57" s="196"/>
+      <c r="H57" s="202"/>
+      <c r="I57" s="202"/>
+      <c r="J57" s="202"/>
+      <c r="K57" s="202"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="15">
@@ -14718,10 +14749,10 @@
       <c r="G58" s="74">
         <v>0.76041666666666663</v>
       </c>
-      <c r="H58" s="196"/>
-      <c r="I58" s="196"/>
-      <c r="J58" s="196"/>
-      <c r="K58" s="196"/>
+      <c r="H58" s="202"/>
+      <c r="I58" s="202"/>
+      <c r="J58" s="202"/>
+      <c r="K58" s="202"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="15">
@@ -14745,12 +14776,12 @@
       <c r="G59" s="74">
         <v>0.76736111111111116</v>
       </c>
-      <c r="H59" s="196" t="s">
+      <c r="H59" s="202" t="s">
         <v>451</v>
       </c>
-      <c r="I59" s="196"/>
-      <c r="J59" s="196"/>
-      <c r="K59" s="196"/>
+      <c r="I59" s="202"/>
+      <c r="J59" s="202"/>
+      <c r="K59" s="202"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="15">
@@ -14774,10 +14805,10 @@
       <c r="G60" s="74">
         <v>0.76736111111111116</v>
       </c>
-      <c r="H60" s="196"/>
-      <c r="I60" s="196"/>
-      <c r="J60" s="196"/>
-      <c r="K60" s="196"/>
+      <c r="H60" s="202"/>
+      <c r="I60" s="202"/>
+      <c r="J60" s="202"/>
+      <c r="K60" s="202"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="15">
@@ -14801,12 +14832,12 @@
       <c r="G61" s="74">
         <v>0.76736111111111116</v>
       </c>
-      <c r="H61" s="196" t="s">
+      <c r="H61" s="202" t="s">
         <v>423</v>
       </c>
-      <c r="I61" s="196"/>
-      <c r="J61" s="196"/>
-      <c r="K61" s="196"/>
+      <c r="I61" s="202"/>
+      <c r="J61" s="202"/>
+      <c r="K61" s="202"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="15">
@@ -14830,10 +14861,10 @@
       <c r="G62" s="74">
         <v>0.76736111111111116</v>
       </c>
-      <c r="H62" s="196"/>
-      <c r="I62" s="196"/>
-      <c r="J62" s="196"/>
-      <c r="K62" s="196"/>
+      <c r="H62" s="202"/>
+      <c r="I62" s="202"/>
+      <c r="J62" s="202"/>
+      <c r="K62" s="202"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="15">
@@ -14857,10 +14888,10 @@
       <c r="G63" s="63">
         <v>0.77083333333333337</v>
       </c>
-      <c r="H63" s="196"/>
-      <c r="I63" s="196"/>
-      <c r="J63" s="196"/>
-      <c r="K63" s="196"/>
+      <c r="H63" s="202"/>
+      <c r="I63" s="202"/>
+      <c r="J63" s="202"/>
+      <c r="K63" s="202"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="15">
@@ -14913,12 +14944,12 @@
       <c r="G65" s="77">
         <v>0.78125</v>
       </c>
-      <c r="H65" s="196" t="s">
+      <c r="H65" s="202" t="s">
         <v>423</v>
       </c>
-      <c r="I65" s="196"/>
-      <c r="J65" s="196"/>
-      <c r="K65" s="196"/>
+      <c r="I65" s="202"/>
+      <c r="J65" s="202"/>
+      <c r="K65" s="202"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="15">
@@ -14942,10 +14973,10 @@
       <c r="G66" s="74">
         <v>0.78125</v>
       </c>
-      <c r="H66" s="196"/>
-      <c r="I66" s="196"/>
-      <c r="J66" s="196"/>
-      <c r="K66" s="196"/>
+      <c r="H66" s="202"/>
+      <c r="I66" s="202"/>
+      <c r="J66" s="202"/>
+      <c r="K66" s="202"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="15">
@@ -14969,10 +15000,10 @@
       <c r="G67" s="63">
         <v>0.78125</v>
       </c>
-      <c r="H67" s="196"/>
-      <c r="I67" s="196"/>
-      <c r="J67" s="196"/>
-      <c r="K67" s="196"/>
+      <c r="H67" s="202"/>
+      <c r="I67" s="202"/>
+      <c r="J67" s="202"/>
+      <c r="K67" s="202"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="15">
@@ -14996,12 +15027,12 @@
       <c r="G68" s="74">
         <v>0.79513888888888884</v>
       </c>
-      <c r="H68" s="196" t="s">
+      <c r="H68" s="202" t="s">
         <v>423</v>
       </c>
-      <c r="I68" s="196"/>
-      <c r="J68" s="196"/>
-      <c r="K68" s="196"/>
+      <c r="I68" s="202"/>
+      <c r="J68" s="202"/>
+      <c r="K68" s="202"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="15">
@@ -15025,10 +15056,10 @@
       <c r="G69" s="74">
         <v>0.79513888888888884</v>
       </c>
-      <c r="H69" s="196"/>
-      <c r="I69" s="196"/>
-      <c r="J69" s="196"/>
-      <c r="K69" s="196"/>
+      <c r="H69" s="202"/>
+      <c r="I69" s="202"/>
+      <c r="J69" s="202"/>
+      <c r="K69" s="202"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="15">
@@ -15052,10 +15083,10 @@
       <c r="G70" s="74">
         <v>0.79513888888888884</v>
       </c>
-      <c r="H70" s="196"/>
-      <c r="I70" s="196"/>
-      <c r="J70" s="196"/>
-      <c r="K70" s="196"/>
+      <c r="H70" s="202"/>
+      <c r="I70" s="202"/>
+      <c r="J70" s="202"/>
+      <c r="K70" s="202"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="15">
@@ -15137,12 +15168,12 @@
       <c r="G73" s="76">
         <v>0.81944444444444398</v>
       </c>
-      <c r="H73" s="196" t="s">
+      <c r="H73" s="202" t="s">
         <v>451</v>
       </c>
-      <c r="I73" s="196"/>
-      <c r="J73" s="196"/>
-      <c r="K73" s="196"/>
+      <c r="I73" s="202"/>
+      <c r="J73" s="202"/>
+      <c r="K73" s="202"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="15">
@@ -15166,10 +15197,10 @@
       <c r="G74" s="74">
         <v>0.81944444444444398</v>
       </c>
-      <c r="H74" s="196"/>
-      <c r="I74" s="196"/>
-      <c r="J74" s="196"/>
-      <c r="K74" s="196"/>
+      <c r="H74" s="202"/>
+      <c r="I74" s="202"/>
+      <c r="J74" s="202"/>
+      <c r="K74" s="202"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="15">
@@ -15193,12 +15224,12 @@
       <c r="G75" s="74">
         <v>0.81944444444444398</v>
       </c>
-      <c r="H75" s="196" t="s">
+      <c r="H75" s="202" t="s">
         <v>451</v>
       </c>
-      <c r="I75" s="196"/>
-      <c r="J75" s="196"/>
-      <c r="K75" s="196"/>
+      <c r="I75" s="202"/>
+      <c r="J75" s="202"/>
+      <c r="K75" s="202"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="15">
@@ -15222,10 +15253,10 @@
       <c r="G76" s="74">
         <v>0.81944444444444398</v>
       </c>
-      <c r="H76" s="196"/>
-      <c r="I76" s="196"/>
-      <c r="J76" s="196"/>
-      <c r="K76" s="196"/>
+      <c r="H76" s="202"/>
+      <c r="I76" s="202"/>
+      <c r="J76" s="202"/>
+      <c r="K76" s="202"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="15">
@@ -15278,12 +15309,12 @@
       <c r="G78" s="74">
         <v>0.88541666666666663</v>
       </c>
-      <c r="H78" s="196" t="s">
+      <c r="H78" s="202" t="s">
         <v>451</v>
       </c>
-      <c r="I78" s="196"/>
-      <c r="J78" s="196"/>
-      <c r="K78" s="196"/>
+      <c r="I78" s="202"/>
+      <c r="J78" s="202"/>
+      <c r="K78" s="202"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="15">
@@ -15307,10 +15338,10 @@
       <c r="G79" s="74">
         <v>0.88541666666666663</v>
       </c>
-      <c r="H79" s="196"/>
-      <c r="I79" s="196"/>
-      <c r="J79" s="196"/>
-      <c r="K79" s="196"/>
+      <c r="H79" s="202"/>
+      <c r="I79" s="202"/>
+      <c r="J79" s="202"/>
+      <c r="K79" s="202"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="15">
@@ -15363,12 +15394,12 @@
       <c r="G81" s="74">
         <v>0.85416666666666663</v>
       </c>
-      <c r="H81" s="196" t="s">
+      <c r="H81" s="202" t="s">
         <v>451</v>
       </c>
-      <c r="I81" s="196"/>
-      <c r="J81" s="196"/>
-      <c r="K81" s="196"/>
+      <c r="I81" s="202"/>
+      <c r="J81" s="202"/>
+      <c r="K81" s="202"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="15">
@@ -15392,10 +15423,10 @@
       <c r="G82" s="74">
         <v>0.85416666666666663</v>
       </c>
-      <c r="H82" s="196"/>
-      <c r="I82" s="196"/>
-      <c r="J82" s="196"/>
-      <c r="K82" s="196"/>
+      <c r="H82" s="202"/>
+      <c r="I82" s="202"/>
+      <c r="J82" s="202"/>
+      <c r="K82" s="202"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="15">
@@ -15419,12 +15450,12 @@
       <c r="G83" s="76">
         <v>0.84375</v>
       </c>
-      <c r="H83" s="196" t="s">
+      <c r="H83" s="202" t="s">
         <v>451</v>
       </c>
-      <c r="I83" s="196"/>
-      <c r="J83" s="196"/>
-      <c r="K83" s="196"/>
+      <c r="I83" s="202"/>
+      <c r="J83" s="202"/>
+      <c r="K83" s="202"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="15">
@@ -15448,10 +15479,10 @@
       <c r="G84" s="74">
         <v>0.85416666666666663</v>
       </c>
-      <c r="H84" s="196"/>
-      <c r="I84" s="196"/>
-      <c r="J84" s="196"/>
-      <c r="K84" s="196"/>
+      <c r="H84" s="202"/>
+      <c r="I84" s="202"/>
+      <c r="J84" s="202"/>
+      <c r="K84" s="202"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="15">
@@ -15475,12 +15506,12 @@
       <c r="G85" s="75">
         <v>0.85416666666666663</v>
       </c>
-      <c r="H85" s="196" t="s">
+      <c r="H85" s="202" t="s">
         <v>423</v>
       </c>
-      <c r="I85" s="196"/>
-      <c r="J85" s="196"/>
-      <c r="K85" s="196"/>
+      <c r="I85" s="202"/>
+      <c r="J85" s="202"/>
+      <c r="K85" s="202"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="15">
@@ -15504,10 +15535,10 @@
       <c r="G86" s="75">
         <v>0.85416666666666663</v>
       </c>
-      <c r="H86" s="196"/>
-      <c r="I86" s="196"/>
-      <c r="J86" s="196"/>
-      <c r="K86" s="196"/>
+      <c r="H86" s="202"/>
+      <c r="I86" s="202"/>
+      <c r="J86" s="202"/>
+      <c r="K86" s="202"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="15">
@@ -15560,12 +15591,12 @@
       <c r="G88" s="76">
         <v>0.88541666666666663</v>
       </c>
-      <c r="H88" s="196" t="s">
+      <c r="H88" s="202" t="s">
         <v>423</v>
       </c>
-      <c r="I88" s="196"/>
-      <c r="J88" s="196"/>
-      <c r="K88" s="196"/>
+      <c r="I88" s="202"/>
+      <c r="J88" s="202"/>
+      <c r="K88" s="202"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="15">
@@ -15589,10 +15620,10 @@
       <c r="G89" s="76">
         <v>0.88541666666666663</v>
       </c>
-      <c r="H89" s="196"/>
-      <c r="I89" s="196"/>
-      <c r="J89" s="196"/>
-      <c r="K89" s="196"/>
+      <c r="H89" s="202"/>
+      <c r="I89" s="202"/>
+      <c r="J89" s="202"/>
+      <c r="K89" s="202"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="15">
@@ -15616,10 +15647,10 @@
       <c r="G90" s="76">
         <v>0.88541666666666663</v>
       </c>
-      <c r="H90" s="196"/>
-      <c r="I90" s="196"/>
-      <c r="J90" s="196"/>
-      <c r="K90" s="196"/>
+      <c r="H90" s="202"/>
+      <c r="I90" s="202"/>
+      <c r="J90" s="202"/>
+      <c r="K90" s="202"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="15">
@@ -15765,6 +15796,98 @@
     <sortCondition ref="G76"/>
   </sortState>
   <mergeCells count="116">
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="K65:K67"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="J68:J70"/>
+    <mergeCell ref="K68:K70"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="K56:K58"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="I41:I42"/>
     <mergeCell ref="H83:H84"/>
     <mergeCell ref="H85:H86"/>
     <mergeCell ref="H88:H90"/>
@@ -15789,98 +15912,6 @@
     <mergeCell ref="H25:H27"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="K56:K58"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="K50:K52"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="K65:K67"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="J68:J70"/>
-    <mergeCell ref="K68:K70"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
   </mergeCells>
   <conditionalFormatting sqref="B18">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -15957,12 +15988,12 @@
       <c r="F2" s="74">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G2" s="190" t="s">
+      <c r="G2" s="193" t="s">
         <v>423</v>
       </c>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
@@ -15983,10 +16014,10 @@
       <c r="F3" s="74">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
@@ -16007,10 +16038,10 @@
       <c r="F4" s="74">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G4" s="190"/>
-      <c r="H4" s="190"/>
-      <c r="I4" s="190"/>
-      <c r="J4" s="190"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="193"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
@@ -16031,12 +16062,12 @@
       <c r="F5" s="74">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G5" s="190" t="s">
+      <c r="G5" s="193" t="s">
         <v>423</v>
       </c>
-      <c r="H5" s="190"/>
-      <c r="I5" s="190"/>
-      <c r="J5" s="190"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="193"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
@@ -16057,10 +16088,10 @@
       <c r="F6" s="74">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G6" s="190"/>
-      <c r="H6" s="190"/>
-      <c r="I6" s="190"/>
-      <c r="J6" s="190"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="193"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
@@ -16081,10 +16112,10 @@
       <c r="F7" s="74">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="190"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
